--- a/Document/武将技能及晋升资质.xlsx
+++ b/Document/武将技能及晋升资质.xlsx
@@ -12,22 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$X$28</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="229">
   <si>
     <t>四维</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,26 +101,6 @@
   </si>
   <si>
     <t>司马炎</t>
-  </si>
-  <si>
-    <t>血条型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法力型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒气型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法力型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -269,10 +241,6 @@
   </si>
   <si>
     <t>9阶</t>
-  </si>
-  <si>
-    <t>肉盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增加物理防御值</t>
@@ -496,12 +464,505 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>体质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+  </si>
+  <si>
+    <t>邓艾</t>
+  </si>
+  <si>
+    <t>庞德</t>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+  </si>
+  <si>
+    <t>夏侯渊</t>
+  </si>
+  <si>
+    <t>荀彧</t>
+  </si>
+  <si>
+    <t>张合</t>
+  </si>
+  <si>
+    <t>曹仁</t>
+  </si>
+  <si>
+    <t>荀攸</t>
+  </si>
+  <si>
+    <t>司马昭</t>
+  </si>
+  <si>
+    <t>曹彰</t>
+  </si>
+  <si>
+    <t>程昱</t>
+  </si>
+  <si>
+    <t>司马师</t>
+  </si>
+  <si>
+    <t>王异</t>
+  </si>
+  <si>
+    <t>徐晃</t>
+  </si>
+  <si>
+    <t>钟会</t>
+  </si>
+  <si>
+    <t>曹丕</t>
+  </si>
+  <si>
+    <t>乐进</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>甄姬</t>
+  </si>
+  <si>
+    <t>黄忠</t>
+  </si>
+  <si>
+    <t>法正</t>
+  </si>
+  <si>
+    <t>关平</t>
+  </si>
+  <si>
+    <t>关索</t>
+  </si>
+  <si>
+    <t>关兴</t>
+  </si>
+  <si>
+    <t>姜维</t>
+  </si>
+  <si>
+    <t>马岱</t>
+  </si>
+  <si>
+    <t>魏延</t>
+  </si>
+  <si>
+    <t>张苞</t>
+  </si>
+  <si>
+    <t>黄月英</t>
+  </si>
+  <si>
+    <t>关银屏</t>
+  </si>
+  <si>
+    <t>廖化</t>
+  </si>
+  <si>
+    <t>刘备</t>
+  </si>
+  <si>
+    <t>刘禅</t>
+  </si>
+  <si>
+    <t>马良</t>
+  </si>
+  <si>
+    <t>孟获</t>
+  </si>
+  <si>
+    <t>徐庶</t>
+  </si>
+  <si>
+    <t>严颜</t>
+  </si>
+  <si>
+    <t>周仓</t>
+  </si>
+  <si>
+    <t>鲍三娘</t>
+  </si>
+  <si>
+    <t>程普</t>
+  </si>
+  <si>
+    <t>黄盖</t>
+  </si>
+  <si>
+    <t>鲁肃</t>
+  </si>
+  <si>
+    <t>陆抗</t>
+  </si>
+  <si>
+    <t>太史慈</t>
+  </si>
+  <si>
+    <t>张昭</t>
+  </si>
+  <si>
+    <t>周泰</t>
+  </si>
+  <si>
+    <t>大乔</t>
+  </si>
+  <si>
+    <t>凌统</t>
+  </si>
+  <si>
+    <t>小乔</t>
+  </si>
+  <si>
+    <t>韩当</t>
+  </si>
+  <si>
+    <t>潘璋</t>
+  </si>
+  <si>
+    <t>孙坚</t>
+  </si>
+  <si>
+    <t>孙权</t>
+  </si>
+  <si>
+    <t>孙尚香</t>
+  </si>
+  <si>
+    <t>诸葛瑾</t>
+  </si>
+  <si>
+    <t>诸葛恪</t>
+  </si>
+  <si>
+    <t>丁奉</t>
+  </si>
+  <si>
+    <t>徐盛</t>
+  </si>
+  <si>
+    <t>张纮</t>
+  </si>
+  <si>
+    <t>陈宫</t>
+  </si>
+  <si>
+    <t>华佗</t>
+  </si>
+  <si>
+    <t>华雄</t>
+  </si>
+  <si>
+    <t>李儒</t>
+  </si>
+  <si>
+    <t>吕玲绮</t>
+  </si>
+  <si>
+    <t>水镜</t>
+  </si>
+  <si>
+    <t>文丑</t>
+  </si>
+  <si>
+    <t>颜良</t>
+  </si>
+  <si>
+    <t>袁绍</t>
+  </si>
+  <si>
+    <t>张任</t>
+  </si>
+  <si>
+    <t>蔡文姬</t>
+  </si>
+  <si>
+    <t>董卓</t>
+  </si>
+  <si>
+    <t>高览</t>
+  </si>
+  <si>
+    <t>高顺</t>
+  </si>
+  <si>
+    <t>公孙瓒</t>
+  </si>
+  <si>
+    <t>沮授</t>
+  </si>
+  <si>
+    <t>马腾</t>
+  </si>
+  <si>
+    <t>田丰</t>
+  </si>
+  <si>
+    <t>袁术</t>
+  </si>
+  <si>
+    <t>邹氏</t>
+  </si>
+  <si>
+    <t>国籍</t>
+  </si>
+  <si>
+    <t>国籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SS</t>
+    </r>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S</t>
+    </r>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>曹植</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>满宠</t>
+  </si>
+  <si>
+    <t>杨修</t>
+  </si>
+  <si>
+    <t>张春华</t>
+  </si>
+  <si>
+    <t>费祎</t>
+  </si>
+  <si>
+    <t>蒋琬</t>
+  </si>
+  <si>
+    <t>马谡</t>
+  </si>
+  <si>
+    <t>沙摩柯</t>
+  </si>
+  <si>
+    <t>孙乾</t>
+  </si>
+  <si>
+    <t>王平</t>
+  </si>
+  <si>
+    <t>夏侯霸</t>
+  </si>
+  <si>
+    <t>伊籍</t>
+  </si>
+  <si>
+    <t>张星彩</t>
+  </si>
+  <si>
+    <t>祝融夫人</t>
+  </si>
+  <si>
+    <t>步练师</t>
+  </si>
+  <si>
+    <t>步鹭</t>
+  </si>
+  <si>
+    <t>陈武</t>
+  </si>
+  <si>
+    <t>董袭</t>
+  </si>
+  <si>
+    <t>顾雍</t>
+  </si>
+  <si>
+    <t>蒋钦</t>
+  </si>
+  <si>
+    <t>吴国太</t>
+  </si>
+  <si>
+    <t>郭汜</t>
+  </si>
+  <si>
+    <t>纪灵</t>
+  </si>
+  <si>
+    <t>李榷</t>
+  </si>
+  <si>
+    <t>刘表</t>
+  </si>
+  <si>
+    <t>刘璋</t>
+  </si>
+  <si>
+    <t>潘凤</t>
+  </si>
+  <si>
+    <t>张松</t>
+  </si>
+  <si>
+    <t>魏</t>
+  </si>
+  <si>
+    <t>蜀</t>
+  </si>
+  <si>
+    <t>吴</t>
+  </si>
+  <si>
+    <t>群</t>
+  </si>
+  <si>
+    <t>帝</t>
+  </si>
+  <si>
+    <t>蜀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉碎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横扫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +996,24 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -565,13 +1044,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -586,28 +1072,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -899,329 +1405,2622 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:V136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="9" style="3"/>
-    <col min="4" max="7" width="8" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="3" customWidth="1"/>
-    <col min="9" max="17" width="15.625" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="3"/>
+    <col min="1" max="5" width="9" style="3"/>
+    <col min="6" max="9" width="8" style="3" customWidth="1"/>
+    <col min="10" max="12" width="17.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.625" style="3" customWidth="1"/>
+    <col min="14" max="22" width="30.625" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+    </row>
+    <row r="2" spans="1:22" ht="95.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B3" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" s="3">
+        <v>99</v>
+      </c>
+      <c r="G3" s="3">
+        <v>75</v>
+      </c>
+      <c r="H3" s="3">
+        <v>87</v>
+      </c>
+      <c r="I3" s="3">
+        <v>100</v>
+      </c>
+      <c r="J3" s="3">
+        <f>SUM(F3:I3)</f>
+        <v>361</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-    </row>
-    <row r="2" spans="1:17" ht="95.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="10" t="s">
+      <c r="B4" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="3">
+        <v>70</v>
+      </c>
+      <c r="G4" s="3">
+        <v>99</v>
+      </c>
+      <c r="H4" s="3">
+        <v>94</v>
+      </c>
+      <c r="I4" s="3">
+        <v>68</v>
+      </c>
+      <c r="J4" s="3">
+        <f>SUM(F4:I4)</f>
+        <v>331</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="10" t="s">
+      <c r="B5" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="3">
+        <v>72</v>
+      </c>
+      <c r="G5" s="3">
+        <v>97</v>
+      </c>
+      <c r="H5" s="3">
+        <v>75</v>
+      </c>
+      <c r="I5" s="3">
+        <v>92</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" ref="J5:J28" si="0">SUM(F5:I5)</f>
+        <v>336</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="10" t="s">
+      <c r="B6" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="3">
+        <v>68</v>
+      </c>
+      <c r="G6" s="3">
+        <v>100</v>
+      </c>
+      <c r="H6" s="3">
+        <v>92</v>
+      </c>
+      <c r="I6" s="3">
+        <v>95</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="10" t="s">
+      <c r="B7" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" s="3">
+        <v>98</v>
+      </c>
+      <c r="G7" s="3">
+        <v>66</v>
+      </c>
+      <c r="H7" s="3">
+        <v>72</v>
+      </c>
+      <c r="I7" s="3">
+        <v>99</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="10" t="s">
+      <c r="B8" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="3">
+        <v>95</v>
+      </c>
+      <c r="G8" s="3">
+        <v>89</v>
+      </c>
+      <c r="H8" s="3">
+        <v>80</v>
+      </c>
+      <c r="I8" s="3">
+        <v>95</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>359</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="11" t="s">
+      <c r="B9" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="3">
+        <v>96</v>
+      </c>
+      <c r="G9" s="3">
+        <v>88</v>
+      </c>
+      <c r="H9" s="3">
+        <v>85</v>
+      </c>
+      <c r="I9" s="3">
+        <v>90</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>359</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="10" t="s">
+      <c r="B10" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="3">
+        <v>92</v>
+      </c>
+      <c r="G10" s="3">
+        <v>67</v>
+      </c>
+      <c r="H10" s="3">
+        <v>99</v>
+      </c>
+      <c r="I10" s="3">
+        <v>88</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
+        <v>346</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="10" t="s">
+      <c r="B11" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="3">
+        <v>72</v>
+      </c>
+      <c r="G11" s="3">
+        <v>97</v>
+      </c>
+      <c r="H11" s="3">
+        <v>80</v>
+      </c>
+      <c r="I11" s="3">
+        <v>90</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="0"/>
+        <v>339</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="10" t="s">
+      <c r="B12" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="3">
+        <v>99</v>
+      </c>
+      <c r="G12" s="3">
+        <v>75</v>
+      </c>
+      <c r="H12" s="3">
+        <v>83</v>
+      </c>
+      <c r="I12" s="3">
+        <v>96</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
+        <v>353</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="10" t="s">
+      <c r="B13" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="3">
+        <v>94</v>
+      </c>
+      <c r="G13" s="3">
+        <v>86</v>
+      </c>
+      <c r="H13" s="3">
+        <v>100</v>
+      </c>
+      <c r="I13" s="3">
+        <v>90</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="11" t="s">
+      <c r="B14" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="3">
+        <v>66</v>
+      </c>
+      <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>90</v>
+      </c>
+      <c r="I14" s="3">
+        <v>78</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
+        <v>334</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="10" t="s">
+      <c r="B15" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="3">
+        <v>96</v>
+      </c>
+      <c r="G15" s="3">
+        <v>82</v>
+      </c>
+      <c r="H15" s="3">
+        <v>92</v>
+      </c>
+      <c r="I15" s="3">
+        <v>90</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="10" t="s">
+      <c r="B16" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="3">
+        <v>72</v>
+      </c>
+      <c r="G16" s="3">
+        <v>97</v>
+      </c>
+      <c r="H16" s="3">
+        <v>93</v>
+      </c>
+      <c r="I16" s="3">
+        <v>88</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="10" t="s">
+      <c r="B17" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" s="3">
+        <v>90</v>
+      </c>
+      <c r="G17" s="3">
+        <v>90</v>
+      </c>
+      <c r="H17" s="3">
+        <v>90</v>
+      </c>
+      <c r="I17" s="3">
+        <v>90</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="10" t="s">
+      <c r="B18" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="3">
+        <v>96</v>
+      </c>
+      <c r="G18" s="3">
+        <v>76</v>
+      </c>
+      <c r="H18" s="3">
+        <v>94</v>
+      </c>
+      <c r="I18" s="3">
+        <v>88</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="0"/>
+        <v>354</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="10" t="s">
+      <c r="B19" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" s="3">
+        <v>97</v>
+      </c>
+      <c r="G19" s="3">
+        <v>80</v>
+      </c>
+      <c r="H19" s="3">
+        <v>93</v>
+      </c>
+      <c r="I19" s="3">
+        <v>88</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="11" t="s">
+      <c r="B20" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="3">
+        <v>84</v>
+      </c>
+      <c r="G20" s="3">
+        <v>98</v>
+      </c>
+      <c r="H20" s="3">
+        <v>89</v>
+      </c>
+      <c r="I20" s="3">
+        <v>79</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="10" t="s">
+      <c r="B21" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F21" s="3">
+        <v>67</v>
+      </c>
+      <c r="G21" s="3">
+        <v>91</v>
+      </c>
+      <c r="H21" s="3">
+        <v>98</v>
+      </c>
+      <c r="I21" s="3">
+        <v>80</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="11" t="s">
+      <c r="B22" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>62</v>
+      </c>
+      <c r="H22" s="3">
+        <v>95</v>
+      </c>
+      <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="0"/>
+        <v>357</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="10" t="s">
+      <c r="B23" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F23" s="3">
+        <v>90</v>
+      </c>
+      <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>90</v>
+      </c>
+      <c r="I23" s="3">
+        <v>90</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="10" t="s">
+      <c r="B24" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F24" s="3">
+        <v>71</v>
+      </c>
+      <c r="G24" s="3">
+        <v>92</v>
+      </c>
+      <c r="H24" s="3">
+        <v>90</v>
+      </c>
+      <c r="I24" s="3">
+        <v>82</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="42">
+      <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="10" t="s">
+      <c r="B25" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F25" s="3">
+        <v>76</v>
+      </c>
+      <c r="G25" s="3">
+        <v>88</v>
+      </c>
+      <c r="H25" s="3">
+        <v>94</v>
+      </c>
+      <c r="I25" s="3">
+        <v>87</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="41.25">
+      <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="69">
-      <c r="A25" s="10" t="s">
+      <c r="B26" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F26" s="3">
+        <v>77</v>
+      </c>
+      <c r="G26" s="3">
+        <v>99</v>
+      </c>
+      <c r="H26" s="3">
+        <v>99</v>
+      </c>
+      <c r="I26" s="3">
+        <v>77</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="0"/>
+        <v>352</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="2" t="s">
+      <c r="B27" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="Q25" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="81.75">
-      <c r="A26" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>29</v>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="8"/>
+      <c r="C81" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" s="8"/>
+      <c r="C82" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" s="8"/>
+      <c r="C86" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" s="8"/>
+      <c r="C87" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" s="8"/>
+      <c r="C91" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B92" s="8"/>
+      <c r="C92" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" s="9"/>
+      <c r="C93" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" s="8"/>
+      <c r="C94" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" s="8"/>
+      <c r="C95" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B100" s="8"/>
+      <c r="C100" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B101" s="8"/>
+      <c r="C101" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B102" s="8"/>
+      <c r="C102" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B104" s="8"/>
+      <c r="C104" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B109" s="8"/>
+      <c r="C109" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B111" s="8"/>
+      <c r="C111" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B113" s="8"/>
+      <c r="C113" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B114" s="8"/>
+      <c r="C114" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B115" s="8"/>
+      <c r="C115" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B117" s="8"/>
+      <c r="C117" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B118" s="8"/>
+      <c r="C118" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B119" s="8"/>
+      <c r="C119" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B120" s="8"/>
+      <c r="C120" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B121" s="8"/>
+      <c r="C121" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B122" s="8"/>
+      <c r="C122" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B123" s="8"/>
+      <c r="C123" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B124" s="8"/>
+      <c r="C124" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B125" s="8"/>
+      <c r="C125" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B127" s="8"/>
+      <c r="C127" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B128" s="8"/>
+      <c r="C128" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B129" s="8"/>
+      <c r="C129" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B131" s="8"/>
+      <c r="C131" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B132" s="8"/>
+      <c r="C132" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B134" s="8"/>
+      <c r="C134" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B28"/>
-  <mergeCells count="6">
+  <autoFilter ref="D1:X28">
+    <filterColumn colId="1"/>
+    <filterColumn colId="2"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="7"/>
+    <filterColumn colId="8"/>
+    <filterColumn colId="10"/>
+    <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
+    <filterColumn colId="14" showButton="0"/>
+    <filterColumn colId="15" showButton="0"/>
+    <filterColumn colId="16" showButton="0"/>
+    <filterColumn colId="17" showButton="0"/>
+    <filterColumn colId="18" showButton="0"/>
+    <filterColumn colId="19" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="8">
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:Q1"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1244,175 +4043,175 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1423,12 +4222,1902 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C262"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C135"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>3</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>3</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>4</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>4</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>4</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>4</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>4</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>4</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>6</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>6</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="10">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="10">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="10">
+        <v>1</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="10">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="10">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="10">
+        <v>1</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="10">
+        <v>1</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="10">
+        <v>1</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="10">
+        <v>2</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="10">
+        <v>2</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="10">
+        <v>2</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="10">
+        <v>2</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="10">
+        <v>2</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="10">
+        <v>2</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="10">
+        <v>2</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="10">
+        <v>2</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="10">
+        <v>2</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="10">
+        <v>2</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="10">
+        <v>3</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="10">
+        <v>3</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="10">
+        <v>3</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="10">
+        <v>3</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="10">
+        <v>3</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" s="10">
+        <v>3</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="10">
+        <v>3</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="10">
+        <v>3</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="10">
+        <v>3</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="10">
+        <v>3</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="10">
+        <v>4</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="10">
+        <v>4</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="10">
+        <v>4</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" s="10">
+        <v>4</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="10">
+        <v>4</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B63" s="10">
+        <v>4</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="10">
+        <v>4</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" s="10">
+        <v>4</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="10">
+        <v>4</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="10">
+        <v>4</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="10">
+        <v>1</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="10">
+        <v>1</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="10">
+        <v>1</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="10">
+        <v>1</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="10">
+        <v>1</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="10">
+        <v>1</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="10">
+        <v>1</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" s="10">
+        <v>1</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" s="10">
+        <v>1</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="10">
+        <v>1</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="10">
+        <v>2</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="10">
+        <v>2</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="10">
+        <v>2</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="10">
+        <v>2</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="10">
+        <v>2</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" s="10">
+        <v>2</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="10">
+        <v>2</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" s="10">
+        <v>2</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" s="10">
+        <v>2</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" s="11">
+        <v>2</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" s="10">
+        <v>3</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" s="10">
+        <v>3</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" s="10">
+        <v>3</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="10">
+        <v>3</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="10">
+        <v>3</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="10">
+        <v>3</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" s="10">
+        <v>3</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" s="10">
+        <v>3</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B96" s="10">
+        <v>3</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" s="10">
+        <v>3</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B98" s="10">
+        <v>4</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B99" s="10">
+        <v>4</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B100" s="10">
+        <v>4</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B101" s="10">
+        <v>4</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B102" s="10">
+        <v>4</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B103" s="10">
+        <v>4</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B104" s="10">
+        <v>4</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B105" s="10">
+        <v>4</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B106" s="10">
+        <v>4</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B107" s="10">
+        <v>4</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B108" s="10">
+        <v>1</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B109" s="10">
+        <v>1</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B110" s="10">
+        <v>1</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B111" s="10">
+        <v>1</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B112" s="10">
+        <v>2</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B113" s="10">
+        <v>2</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B114" s="10">
+        <v>2</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B115" s="10">
+        <v>2</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B116" s="10">
+        <v>2</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B117" s="10">
+        <v>2</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B118" s="10">
+        <v>2</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B119" s="10">
+        <v>2</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B120" s="10">
+        <v>2</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B121" s="10">
+        <v>2</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B122" s="11">
+        <v>3</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B123" s="10">
+        <v>3</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B124" s="10">
+        <v>3</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B125" s="10">
+        <v>3</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B126" s="10">
+        <v>3</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B127" s="10">
+        <v>3</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B128" s="10">
+        <v>3</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B129" s="10">
+        <v>4</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B130" s="10">
+        <v>4</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B131" s="10">
+        <v>4</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B132" s="10">
+        <v>4</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B133" s="10">
+        <v>4</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B134" s="10">
+        <v>4</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B135" s="10">
+        <v>4</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="8"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="8"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="8"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="8"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="8"/>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="8"/>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="8"/>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="8"/>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="8"/>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="8"/>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="8"/>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="8"/>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="8"/>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="8"/>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="8"/>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="8"/>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="8"/>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="8"/>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="8"/>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="8"/>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="8"/>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="8"/>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="8"/>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="8"/>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="8"/>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="8"/>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="8"/>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="8"/>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="8"/>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="8"/>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="8"/>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="8"/>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="8"/>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="8"/>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="8"/>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="8"/>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="8"/>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="8"/>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="8"/>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="8"/>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="8"/>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="8"/>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="8"/>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="8"/>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="8"/>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="8"/>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="8"/>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="8"/>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="8"/>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="8"/>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="8"/>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="8"/>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="8"/>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="8"/>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="8"/>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="8"/>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="8"/>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="8"/>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="8"/>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="8"/>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="8"/>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="8"/>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="8"/>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="8"/>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="8"/>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="8"/>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="8"/>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="8"/>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="8"/>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="8"/>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="8"/>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="8"/>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="8"/>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="8"/>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="8"/>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="8"/>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="8"/>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="8"/>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="8"/>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="8"/>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="8"/>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="8"/>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="8"/>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="8"/>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="8"/>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="8"/>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="8"/>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="8"/>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="8"/>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="8"/>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" s="8"/>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" s="8"/>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="8"/>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="8"/>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="8"/>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="8"/>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="8"/>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" s="8"/>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" s="8"/>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" s="8"/>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" s="8"/>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" s="8"/>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" s="8"/>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" s="8"/>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" s="8"/>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" s="8"/>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" s="8"/>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" s="8"/>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" s="8"/>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" s="8"/>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" s="8"/>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" s="8"/>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" s="8"/>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" s="8"/>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" s="8"/>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" s="8"/>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" s="8"/>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" s="8"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C262">
+    <sortCondition descending="1" ref="C1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/武将技能及晋升资质.xlsx
+++ b/Document/武将技能及晋升资质.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$X$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$136</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="249">
   <si>
     <t>四维</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,110 +101,6 @@
   </si>
   <si>
     <t>司马炎</t>
-  </si>
-  <si>
-    <r>
-      <t>力量（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>破挡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，物攻成长）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>智力（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，法攻成长，法力上限成长）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>敏捷（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>速度，闪避，暴击</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>体质（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抗暴，格挡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，生命成长）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>晋升能力</t>
@@ -887,30 +783,198 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>SSS</t>
-    </r>
+    <t>SSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉碎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横扫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>S</t>
+      <t>神力*双戟：当典韦装备粉碎武器时，防御提升X；当装备短兵器时，普通攻击有</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>几率再次发动一次普通攻击，造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理伤害</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺日*吞月：当张辽装备穿刺类武器时，对首个目标额外增加X伤害；当装备横扫类武器时，额外增加一个目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>踏破：当马超装备穿刺类武器时，普攻伤害提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴怒：当张飞装备穿刺类武器时，对首个目标身旁的两个单位造成X溅射伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿云*青釭：当赵云装备穿刺类武器时，可额外增加一个目标；当装备短兵器时，普通攻击可为目标附加一个破甲状态，受到物理伤害提升X，持续2回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>破军</t>
+  </si>
+  <si>
+    <t>七杀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -918,43 +982,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>七杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉碎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横扫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远射</t>
+    <t>破军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阵*绝杀：当甘宁装备短兵器时，增加自身X生命上限，当装备远射类武器时，普通攻击对生命X以下的敌人增加X伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>武圣：当关羽装备横扫类武器时，对其影响目标身后的单位造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>溅射伤害</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都督*圣兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都督*白虎：当陆逊装备法术武器时，普攻伤害增加X；当装备短兵时，白虎的防御增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,7 +1039,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -990,13 +1067,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1015,7 +1085,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1034,6 +1104,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1049,15 +1125,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1078,16 +1154,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1097,16 +1173,49 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1405,667 +1514,751 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V136"/>
+  <dimension ref="A1:W136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="5" width="9" style="3"/>
-    <col min="6" max="9" width="8" style="3" customWidth="1"/>
-    <col min="10" max="12" width="17.625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.625" style="3" customWidth="1"/>
-    <col min="14" max="22" width="30.625" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="28"/>
+    <col min="2" max="6" width="9" style="3"/>
+    <col min="7" max="10" width="8" style="3" customWidth="1"/>
+    <col min="11" max="13" width="17.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="15.625" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="18" width="30.625" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="44.5" style="3" customWidth="1"/>
+    <col min="20" max="23" width="30.625" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="26"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="42">
+      <c r="A3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="C3" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="13" t="str">
+        <f>IF(C3="A","蓝",IF(C3="SSS","橙","紫"))</f>
+        <v>橙</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="3">
+        <v>99</v>
+      </c>
+      <c r="H3" s="3">
+        <v>75</v>
+      </c>
+      <c r="I3" s="3">
+        <v>87</v>
+      </c>
+      <c r="J3" s="3">
+        <v>100</v>
+      </c>
+      <c r="K3" s="3">
+        <f>SUM(G3:J3)</f>
+        <v>361</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="C4" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="13" t="str">
+        <f>IF(C4="A","蓝",IF(C4="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="3">
+        <v>70</v>
+      </c>
+      <c r="H4" s="3">
+        <v>99</v>
+      </c>
+      <c r="I4" s="3">
+        <v>94</v>
+      </c>
+      <c r="J4" s="3">
+        <v>68</v>
+      </c>
+      <c r="K4" s="3">
+        <f>SUM(G4:J4)</f>
+        <v>331</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-    </row>
-    <row r="2" spans="1:22" ht="95.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="2" t="s">
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="13" t="str">
+        <f>IF(C5="A","蓝",IF(C5="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="3">
+        <v>72</v>
+      </c>
+      <c r="H5" s="3">
+        <v>97</v>
+      </c>
+      <c r="I5" s="3">
+        <v>75</v>
+      </c>
+      <c r="J5" s="3">
+        <v>92</v>
+      </c>
+      <c r="K5" s="3">
+        <f>SUM(G5:J5)</f>
+        <v>336</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="13" t="str">
+        <f>IF(C6="A","蓝",IF(C6="SSS","橙","紫"))</f>
+        <v>橙</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="3">
+        <v>68</v>
+      </c>
+      <c r="H6" s="3">
+        <v>100</v>
+      </c>
+      <c r="I6" s="3">
+        <v>92</v>
+      </c>
+      <c r="J6" s="3">
+        <v>95</v>
+      </c>
+      <c r="K6" s="3">
+        <f>SUM(G6:J6)</f>
+        <v>355</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="13" t="str">
+        <f>IF(C7="A","蓝",IF(C7="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="3">
+        <v>98</v>
+      </c>
+      <c r="H7" s="3">
+        <v>66</v>
+      </c>
+      <c r="I7" s="3">
+        <v>72</v>
+      </c>
+      <c r="J7" s="3">
+        <v>99</v>
+      </c>
+      <c r="K7" s="3">
+        <f>SUM(G7:J7)</f>
+        <v>335</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="13" t="s">
+    </row>
+    <row r="8" spans="1:23" ht="40.5">
+      <c r="A8" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="13" t="str">
+        <f>IF(C8="A","蓝",IF(C8="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="3">
+        <v>95</v>
+      </c>
+      <c r="H8" s="3">
+        <v>89</v>
+      </c>
+      <c r="I8" s="3">
+        <v>80</v>
+      </c>
+      <c r="J8" s="3">
+        <v>95</v>
+      </c>
+      <c r="K8" s="3">
+        <f>SUM(G8:J8)</f>
+        <v>359</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="27.75">
+      <c r="A9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="13" t="str">
+        <f>IF(C9="A","蓝",IF(C9="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="3">
+        <v>96</v>
+      </c>
+      <c r="H9" s="3">
+        <v>88</v>
+      </c>
+      <c r="I9" s="3">
+        <v>85</v>
+      </c>
+      <c r="J9" s="3">
+        <v>90</v>
+      </c>
+      <c r="K9" s="3">
+        <f>SUM(G9:J9)</f>
+        <v>359</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C10" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="13" t="str">
+        <f>IF(C10="A","蓝",IF(C10="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="3">
+        <v>92</v>
+      </c>
+      <c r="H10" s="3">
+        <v>67</v>
+      </c>
+      <c r="I10" s="3">
+        <v>99</v>
+      </c>
+      <c r="J10" s="3">
+        <v>88</v>
+      </c>
+      <c r="K10" s="3">
+        <f>SUM(G10:J10)</f>
+        <v>346</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="13" t="str">
+        <f>IF(C11="A","蓝",IF(C11="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="3">
+        <v>72</v>
+      </c>
+      <c r="H11" s="3">
+        <v>97</v>
+      </c>
+      <c r="I11" s="3">
+        <v>80</v>
+      </c>
+      <c r="J11" s="3">
+        <v>90</v>
+      </c>
+      <c r="K11" s="3">
+        <f>SUM(G11:J11)</f>
+        <v>339</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="27.75">
+      <c r="A12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="13" t="str">
+        <f>IF(C12="A","蓝",IF(C12="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="3">
+        <v>99</v>
+      </c>
+      <c r="H12" s="3">
+        <v>75</v>
+      </c>
+      <c r="I12" s="3">
         <v>83</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F3" s="3">
-        <v>99</v>
-      </c>
-      <c r="G3" s="3">
-        <v>75</v>
-      </c>
-      <c r="H3" s="3">
-        <v>87</v>
-      </c>
-      <c r="I3" s="3">
-        <v>100</v>
-      </c>
-      <c r="J3" s="3">
-        <f>SUM(F3:I3)</f>
-        <v>361</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F4" s="3">
-        <v>70</v>
-      </c>
-      <c r="G4" s="3">
-        <v>99</v>
-      </c>
-      <c r="H4" s="3">
-        <v>94</v>
-      </c>
-      <c r="I4" s="3">
-        <v>68</v>
-      </c>
-      <c r="J4" s="3">
-        <f>SUM(F4:I4)</f>
-        <v>331</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="3">
-        <v>72</v>
-      </c>
-      <c r="G5" s="3">
-        <v>97</v>
-      </c>
-      <c r="H5" s="3">
-        <v>75</v>
-      </c>
-      <c r="I5" s="3">
-        <v>92</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" ref="J5:J28" si="0">SUM(F5:I5)</f>
-        <v>336</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" s="3">
-        <v>68</v>
-      </c>
-      <c r="G6" s="3">
-        <v>100</v>
-      </c>
-      <c r="H6" s="3">
-        <v>92</v>
-      </c>
-      <c r="I6" s="3">
-        <v>95</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" si="0"/>
-        <v>355</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7" s="3">
-        <v>98</v>
-      </c>
-      <c r="G7" s="3">
-        <v>66</v>
-      </c>
-      <c r="H7" s="3">
-        <v>72</v>
-      </c>
-      <c r="I7" s="3">
-        <v>99</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="0"/>
-        <v>335</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F8" s="3">
-        <v>95</v>
-      </c>
-      <c r="G8" s="3">
-        <v>89</v>
-      </c>
-      <c r="H8" s="3">
-        <v>80</v>
-      </c>
-      <c r="I8" s="3">
-        <v>95</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="0"/>
-        <v>359</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="J12" s="3">
         <v>96</v>
       </c>
-      <c r="G9" s="3">
-        <v>88</v>
-      </c>
-      <c r="H9" s="3">
-        <v>85</v>
-      </c>
-      <c r="I9" s="3">
-        <v>90</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="0"/>
-        <v>359</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F10" s="3">
-        <v>92</v>
-      </c>
-      <c r="G10" s="3">
-        <v>67</v>
-      </c>
-      <c r="H10" s="3">
-        <v>99</v>
-      </c>
-      <c r="I10" s="3">
-        <v>88</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="0"/>
-        <v>346</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F11" s="3">
-        <v>72</v>
-      </c>
-      <c r="G11" s="3">
-        <v>97</v>
-      </c>
-      <c r="H11" s="3">
-        <v>80</v>
-      </c>
-      <c r="I11" s="3">
-        <v>90</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="0"/>
-        <v>339</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F12" s="3">
-        <v>99</v>
-      </c>
-      <c r="G12" s="3">
-        <v>75</v>
-      </c>
-      <c r="H12" s="3">
-        <v>83</v>
-      </c>
-      <c r="I12" s="3">
-        <v>96</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="0"/>
+      <c r="K12" s="3">
+        <f>SUM(G12:J12)</f>
         <v>353</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="9" t="s">
+      <c r="M12" s="2"/>
+      <c r="S12" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="41.25">
+      <c r="A13" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="13" t="str">
+        <f>IF(C13="A","蓝",IF(C13="SSS","橙","紫"))</f>
+        <v>橙</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="3">
+        <v>94</v>
+      </c>
+      <c r="H13" s="3">
+        <v>86</v>
+      </c>
+      <c r="I13" s="3">
+        <v>100</v>
+      </c>
+      <c r="J13" s="3">
+        <v>90</v>
+      </c>
+      <c r="K13" s="3">
+        <f>SUM(G13:J13)</f>
+        <v>370</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="13" t="str">
+        <f>IF(C14="A","蓝",IF(C14="SSS","橙","紫"))</f>
+        <v>橙</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="3">
+        <v>66</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>90</v>
+      </c>
+      <c r="J14" s="3">
+        <v>78</v>
+      </c>
+      <c r="K14" s="3">
+        <f>SUM(G14:J14)</f>
+        <v>334</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="41.25">
+      <c r="A15" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F13" s="3">
-        <v>94</v>
-      </c>
-      <c r="G13" s="3">
-        <v>86</v>
-      </c>
-      <c r="H13" s="3">
-        <v>100</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="C15" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" s="13" t="str">
+        <f>IF(C15="A","蓝",IF(C15="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="3">
+        <v>96</v>
+      </c>
+      <c r="H15" s="3">
+        <v>82</v>
+      </c>
+      <c r="I15" s="3">
+        <v>92</v>
+      </c>
+      <c r="J15" s="3">
         <v>90</v>
       </c>
-      <c r="J13" s="3">
-        <f t="shared" si="0"/>
-        <v>370</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F14" s="3">
-        <v>66</v>
-      </c>
-      <c r="G14" s="3">
-        <v>100</v>
-      </c>
-      <c r="H14" s="3">
-        <v>90</v>
-      </c>
-      <c r="I14" s="3">
-        <v>78</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="0"/>
-        <v>334</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="K15" s="3">
+        <f>SUM(G15:J15)</f>
+        <v>360</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F15" s="3">
-        <v>96</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="M15" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="27.75">
+      <c r="A16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="13" t="str">
+        <f>IF(C16="A","蓝",IF(C16="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="3">
+        <v>72</v>
+      </c>
+      <c r="H16" s="3">
+        <v>97</v>
+      </c>
+      <c r="I16" s="3">
+        <v>93</v>
+      </c>
+      <c r="J16" s="3">
+        <v>88</v>
+      </c>
+      <c r="K16" s="3">
+        <f>SUM(G16:J16)</f>
+        <v>350</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" s="13" t="str">
+        <f>IF(C17="A","蓝",IF(C17="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="H15" s="3">
-        <v>92</v>
-      </c>
-      <c r="I15" s="3">
-        <v>90</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F16" s="3">
-        <v>72</v>
-      </c>
-      <c r="G16" s="3">
-        <v>97</v>
-      </c>
-      <c r="H16" s="3">
-        <v>93</v>
-      </c>
-      <c r="I16" s="3">
-        <v>88</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F17" s="3">
-        <v>90</v>
       </c>
       <c r="G17" s="3">
         <v>90</v>
@@ -2077,1950 +2270,2796 @@
         <v>90</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="K17" s="3">
+        <f>SUM(G17:J17)</f>
         <v>360</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="L17" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="13" t="str">
+        <f>IF(C18="A","蓝",IF(C18="SSS","橙","紫"))</f>
+        <v>橙</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="3">
+        <v>96</v>
+      </c>
+      <c r="H18" s="3">
+        <v>76</v>
+      </c>
+      <c r="I18" s="3">
+        <v>94</v>
+      </c>
+      <c r="J18" s="3">
+        <v>88</v>
+      </c>
+      <c r="K18" s="3">
+        <f>SUM(G18:J18)</f>
+        <v>354</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C18" s="13" t="s">
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F18" s="3">
-        <v>96</v>
-      </c>
-      <c r="G18" s="3">
-        <v>76</v>
-      </c>
-      <c r="H18" s="3">
-        <v>94</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="C19" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="13" t="str">
+        <f>IF(C19="A","蓝",IF(C19="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="3">
+        <v>97</v>
+      </c>
+      <c r="H19" s="3">
+        <v>80</v>
+      </c>
+      <c r="I19" s="3">
+        <v>93</v>
+      </c>
+      <c r="J19" s="3">
         <v>88</v>
       </c>
-      <c r="J18" s="3">
-        <f t="shared" si="0"/>
-        <v>354</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="K19" s="3">
+        <f>SUM(G19:J19)</f>
+        <v>358</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="13" t="str">
+        <f>IF(C20="A","蓝",IF(C20="SSS","橙","紫"))</f>
+        <v>橙</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="3">
+        <v>84</v>
+      </c>
+      <c r="H20" s="3">
+        <v>98</v>
+      </c>
+      <c r="I20" s="3">
+        <v>89</v>
+      </c>
+      <c r="J20" s="3">
+        <v>79</v>
+      </c>
+      <c r="K20" s="3">
+        <f>SUM(G20:J20)</f>
+        <v>350</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F19" s="3">
-        <v>97</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="S20" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" s="13" t="str">
+        <f>IF(C21="A","蓝",IF(C21="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="3">
+        <v>67</v>
+      </c>
+      <c r="H21" s="3">
+        <v>91</v>
+      </c>
+      <c r="I21" s="3">
+        <v>98</v>
+      </c>
+      <c r="J21" s="3">
         <v>80</v>
       </c>
-      <c r="H19" s="3">
-        <v>93</v>
-      </c>
-      <c r="I19" s="3">
-        <v>88</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" si="0"/>
-        <v>358</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F20" s="3">
-        <v>84</v>
-      </c>
-      <c r="G20" s="3">
-        <v>98</v>
-      </c>
-      <c r="H20" s="3">
-        <v>89</v>
-      </c>
-      <c r="I20" s="3">
-        <v>79</v>
-      </c>
-      <c r="J20" s="3">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F21" s="3">
-        <v>67</v>
-      </c>
-      <c r="G21" s="3">
-        <v>91</v>
-      </c>
-      <c r="H21" s="3">
-        <v>98</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
+        <f>SUM(G21:J21)</f>
+        <v>336</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="13" t="str">
+        <f>IF(C22="A","蓝",IF(C22="SSS","橙","紫"))</f>
+        <v>橙</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>62</v>
+      </c>
+      <c r="I22" s="3">
+        <v>95</v>
+      </c>
+      <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
+        <f>SUM(G22:J22)</f>
+        <v>357</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="13" t="str">
+        <f>IF(C23="A","蓝",IF(C23="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="3">
-        <f t="shared" si="0"/>
-        <v>336</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="G23" s="3">
+        <v>90</v>
+      </c>
+      <c r="H23" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>62</v>
-      </c>
-      <c r="H22" s="3">
-        <v>95</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <f t="shared" si="0"/>
-        <v>357</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F23" s="3">
-        <v>90</v>
-      </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>90</v>
       </c>
       <c r="I23" s="3">
         <v>90</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="K23" s="3">
+        <f>SUM(G23:J23)</f>
         <v>370</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24" s="8" t="s">
+      <c r="L23" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>84</v>
+        <v>213</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="13" t="str">
+        <f>IF(C24="A","蓝",IF(C24="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F24" s="3">
+        <v>205</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="3">
         <v>71</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>92</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>90</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>82</v>
       </c>
-      <c r="J24" s="3">
-        <f t="shared" si="0"/>
+      <c r="K24" s="3">
+        <f>SUM(G24:J24)</f>
         <v>335</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="42">
-      <c r="A25" s="8" t="s">
+      <c r="L24" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="42">
+      <c r="A25" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>86</v>
+        <v>213</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" s="13" t="str">
+        <f>IF(C25="A","蓝",IF(C25="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F25" s="3">
+        <v>205</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="3">
         <v>76</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>88</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>94</v>
       </c>
-      <c r="I25" s="3">
+      <c r="J25" s="3">
         <v>87</v>
       </c>
-      <c r="J25" s="3">
-        <f t="shared" si="0"/>
+      <c r="K25" s="3">
+        <f>SUM(G25:J25)</f>
         <v>345</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="L25" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="T25" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="41.25">
+      <c r="A26" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="13" t="str">
+        <f>IF(C26="A","蓝",IF(C26="SSS","橙","紫"))</f>
+        <v>橙</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="U25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="41.25">
-      <c r="A26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>77</v>
-      </c>
-      <c r="G26" s="3">
-        <v>99</v>
       </c>
       <c r="H26" s="3">
         <v>99</v>
       </c>
       <c r="I26" s="3">
+        <v>99</v>
+      </c>
+      <c r="J26" s="3">
         <v>77</v>
       </c>
-      <c r="J26" s="3">
-        <f t="shared" si="0"/>
+      <c r="K26" s="3">
+        <f>SUM(G26:J26)</f>
         <v>352</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" s="13" t="str">
+        <f>IF(C27="A","蓝",IF(C27="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" s="3">
+        <f>SUM(G27:J27)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="13" t="str">
+        <f>IF(C28="A","蓝",IF(C28="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="3">
+        <f>SUM(G28:J28)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="13" t="str">
+        <f>IF(C29="A","蓝",IF(C29="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="13" t="str">
+        <f>IF(C30="A","蓝",IF(C30="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="13" t="str">
+        <f>IF(C31="A","蓝",IF(C31="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="U26" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="A27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="13" t="s">
+      <c r="L31" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="J27" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="2" t="s">
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="13" t="str">
+        <f>IF(C32="A","蓝",IF(C32="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="13" t="str">
+        <f>IF(C33="A","蓝",IF(C33="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="13" t="str">
+        <f>IF(C34="A","蓝",IF(C34="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="13" t="str">
+        <f>IF(C35="A","蓝",IF(C35="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="13" t="str">
+        <f>IF(C36="A","蓝",IF(C36="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="13" t="s">
+      <c r="L36" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="13" t="str">
+        <f>IF(C37="A","蓝",IF(C37="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="13" t="str">
+        <f>IF(C38="A","蓝",IF(C38="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="13" t="str">
+        <f>IF(C39="A","蓝",IF(C39="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" s="13" t="str">
+        <f>IF(C40="A","蓝",IF(C40="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" s="13" t="str">
+        <f>IF(C41="A","蓝",IF(C41="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="13" t="str">
+        <f>IF(C42="A","蓝",IF(C42="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="13" t="str">
+        <f>IF(C43="A","蓝",IF(C43="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="13" t="str">
+        <f>IF(C44="A","蓝",IF(C44="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" s="13" t="str">
+        <f>IF(C45="A","蓝",IF(C45="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" s="13" t="str">
+        <f>IF(C46="A","蓝",IF(C46="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="13" t="str">
+        <f>IF(C47="A","蓝",IF(C47="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="13" t="str">
+        <f>IF(C48="A","蓝",IF(C48="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="13" t="str">
+        <f>IF(C49="A","蓝",IF(C49="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="13" t="str">
+        <f>IF(C50="A","蓝",IF(C50="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L50" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="J28" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="M50" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="13" t="str">
+        <f>IF(C51="A","蓝",IF(C51="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="13" t="str">
+        <f>IF(C52="A","蓝",IF(C52="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" s="13" t="str">
+        <f>IF(C53="A","蓝",IF(C53="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" s="13" t="str">
+        <f>IF(C54="A","蓝",IF(C54="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" s="13" t="str">
+        <f>IF(C55="A","蓝",IF(C55="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="L55" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" s="13" t="str">
+        <f>IF(C56="A","蓝",IF(C56="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="13" t="str">
+        <f>IF(C57="A","蓝",IF(C57="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="13" t="str">
+        <f>IF(C58="A","蓝",IF(C58="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="13" t="str">
+        <f>IF(C59="A","蓝",IF(C59="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" s="13" t="str">
+        <f>IF(C60="A","蓝",IF(C60="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="13" t="str">
+        <f>IF(C61="A","蓝",IF(C61="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="A31" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="L31" s="2" t="s">
+      <c r="L61" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" s="13" t="str">
+        <f>IF(C62="A","蓝",IF(C62="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" s="13" t="str">
+        <f>IF(C63="A","蓝",IF(C63="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M63" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K33" s="2" t="s">
+    <row r="64" spans="1:13">
+      <c r="A64" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" s="13" t="str">
+        <f>IF(C64="A","蓝",IF(C64="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="L64" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" s="13" t="str">
+        <f>IF(C65="A","蓝",IF(C65="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8" t="s">
-        <v>174</v>
+      <c r="M65" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D66" s="13" t="str">
+        <f>IF(C66="A","蓝",IF(C66="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K66" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67" s="13" t="str">
+        <f>IF(C67="A","蓝",IF(C67="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D68" s="13" t="str">
+        <f>IF(C68="A","蓝",IF(C68="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" s="13" t="str">
+        <f>IF(C69="A","蓝",IF(C69="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="L69" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K67" s="2" t="s">
+    <row r="70" spans="1:13">
+      <c r="A70" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" s="13" t="str">
+        <f>IF(C70="A","蓝",IF(C70="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="L70" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71" s="13" t="str">
+        <f>IF(C71="A","蓝",IF(C71="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" s="13" t="str">
+        <f>IF(C72="A","蓝",IF(C72="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" s="13" t="str">
+        <f>IF(C73="A","蓝",IF(C73="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" s="13" t="str">
+        <f>IF(C74="A","蓝",IF(C74="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75" s="13" t="str">
+        <f>IF(C75="A","蓝",IF(C75="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" s="13" t="str">
+        <f>IF(C76="A","蓝",IF(C76="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L68" s="2" t="s">
+      <c r="L76" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77" s="13" t="str">
+        <f>IF(C77="A","蓝",IF(C77="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" s="13" t="str">
+        <f>IF(C78="A","蓝",IF(C78="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="L78" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D79" s="13" t="str">
+        <f>IF(C79="A","蓝",IF(C79="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D80" s="13" t="str">
+        <f>IF(C80="A","蓝",IF(C80="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" s="13" t="str">
+        <f>IF(C81="A","蓝",IF(C81="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="8" t="s">
-        <v>121</v>
+      <c r="L81" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="24" t="s">
+        <v>117</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D82" s="13" t="str">
+        <f>IF(C82="A","蓝",IF(C82="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="8" t="s">
-        <v>122</v>
+        <v>203</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D83" s="13" t="str">
+        <f>IF(C83="A","蓝",IF(C83="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="9" t="s">
-        <v>123</v>
+        <v>203</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="27" t="s">
+        <v>119</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D84" s="13" t="str">
+        <f>IF(C84="A","蓝",IF(C84="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="8" t="s">
-        <v>124</v>
+        <v>203</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D85" s="13" t="str">
+        <f>IF(C85="A","蓝",IF(C85="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="8" t="s">
-        <v>125</v>
+        <v>203</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D86" s="13" t="str">
+        <f>IF(C86="A","蓝",IF(C86="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="8" t="s">
-        <v>126</v>
+        <v>203</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D87" s="13" t="str">
+        <f>IF(C87="A","蓝",IF(C87="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="8" t="s">
-        <v>127</v>
+        <v>203</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D88" s="13" t="str">
+        <f>IF(C88="A","蓝",IF(C88="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="8" t="s">
-        <v>138</v>
+        <v>203</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="24" t="s">
+        <v>134</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D89" s="13" t="str">
+        <f>IF(C89="A","蓝",IF(C89="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="8" t="s">
-        <v>139</v>
+        <v>204</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D90" s="13" t="str">
+        <f>IF(C90="A","蓝",IF(C90="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="8" t="s">
-        <v>140</v>
+        <v>204</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D91" s="13" t="str">
+        <f>IF(C91="A","蓝",IF(C91="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="8" t="s">
-        <v>141</v>
+        <v>204</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D92" s="13" t="str">
+        <f>IF(C92="A","蓝",IF(C92="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="9" t="s">
-        <v>142</v>
+        <v>204</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D93" s="13" t="str">
+        <f>IF(C93="A","蓝",IF(C93="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="8" t="s">
-        <v>143</v>
+        <v>204</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D94" s="13" t="str">
+        <f>IF(C94="A","蓝",IF(C94="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="8" t="s">
-        <v>144</v>
+        <v>204</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="24" t="s">
+        <v>140</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D95" s="13" t="str">
+        <f>IF(C95="A","蓝",IF(C95="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="8" t="s">
-        <v>145</v>
+        <v>204</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D96" s="13" t="str">
+        <f>IF(C96="A","蓝",IF(C96="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="8" t="s">
-        <v>146</v>
+        <v>204</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="24" t="s">
+        <v>142</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D97" s="13" t="str">
+        <f>IF(C97="A","蓝",IF(C97="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="8" t="s">
-        <v>147</v>
+        <v>204</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="24" t="s">
+        <v>143</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D98" s="13" t="str">
+        <f>IF(C98="A","蓝",IF(C98="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="8" t="s">
-        <v>158</v>
+        <v>204</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="24" t="s">
+        <v>154</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D99" s="13" t="str">
+        <f>IF(C99="A","蓝",IF(C99="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="8" t="s">
-        <v>159</v>
+        <v>205</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D100" s="13" t="str">
+        <f>IF(C100="A","蓝",IF(C100="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="8" t="s">
-        <v>160</v>
+        <v>205</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D101" s="13" t="str">
+        <f>IF(C101="A","蓝",IF(C101="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="8" t="s">
-        <v>161</v>
+        <v>205</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D102" s="13" t="str">
+        <f>IF(C102="A","蓝",IF(C102="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="8" t="s">
-        <v>162</v>
+        <v>205</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="24" t="s">
+        <v>158</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D103" s="13" t="str">
+        <f>IF(C103="A","蓝",IF(C103="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="8" t="s">
-        <v>163</v>
+        <v>205</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D104" s="13" t="str">
+        <f>IF(C104="A","蓝",IF(C104="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="8" t="s">
-        <v>164</v>
+        <v>205</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D105" s="13" t="str">
+        <f>IF(C105="A","蓝",IF(C105="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="8" t="s">
-        <v>165</v>
+        <v>205</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="24" t="s">
+        <v>161</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D106" s="13" t="str">
+        <f>IF(C106="A","蓝",IF(C106="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="8" t="s">
-        <v>166</v>
+        <v>205</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="24" t="s">
+        <v>162</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="D107" s="13" t="str">
+        <f>IF(C107="A","蓝",IF(C107="SSS","橙","紫"))</f>
+        <v>紫</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="8" t="s">
-        <v>167</v>
+        <v>205</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D108" s="13" t="str">
+        <f>IF(C108="A","蓝",IF(C108="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="23" customFormat="1">
+      <c r="A109" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B109" s="19"/>
+      <c r="C109" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D109" s="21" t="str">
+        <f>IF(C109="A","蓝",IF(C109="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F109" s="22"/>
+    </row>
+    <row r="110" spans="1:6" s="23" customFormat="1">
+      <c r="A110" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D110" s="21" t="str">
+        <f>IF(C110="A","蓝",IF(C110="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F110" s="22"/>
+    </row>
+    <row r="111" spans="1:6" s="23" customFormat="1">
+      <c r="A111" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="8" t="s">
+      <c r="B111" s="19"/>
+      <c r="C111" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D111" s="21" t="str">
+        <f>IF(C111="A","蓝",IF(C111="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F111" s="22"/>
+    </row>
+    <row r="112" spans="1:6" s="23" customFormat="1">
+      <c r="A112" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="9" t="s">
+      <c r="B112" s="20"/>
+      <c r="C112" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D112" s="21" t="str">
+        <f>IF(C112="A","蓝",IF(C112="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F112" s="22"/>
+    </row>
+    <row r="113" spans="1:6" s="23" customFormat="1">
+      <c r="A113" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="9" t="s">
+      <c r="B113" s="19"/>
+      <c r="C113" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D113" s="21" t="str">
+        <f>IF(C113="A","蓝",IF(C113="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E113" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F113" s="22"/>
+    </row>
+    <row r="114" spans="1:6" s="23" customFormat="1">
+      <c r="A114" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="8" t="s">
+      <c r="B114" s="19"/>
+      <c r="C114" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D114" s="21" t="str">
+        <f>IF(C114="A","蓝",IF(C114="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F114" s="22"/>
+    </row>
+    <row r="115" spans="1:6" s="23" customFormat="1">
+      <c r="A115" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="9" t="s">
+      <c r="B115" s="19"/>
+      <c r="C115" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D115" s="21" t="str">
+        <f>IF(C115="A","蓝",IF(C115="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="23" customFormat="1">
+      <c r="A116" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="8" t="s">
+      <c r="B116" s="20"/>
+      <c r="C116" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D116" s="21" t="str">
+        <f>IF(C116="A","蓝",IF(C116="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="23" customFormat="1">
+      <c r="A117" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="B113" s="8"/>
-      <c r="C113" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="8" t="s">
+      <c r="B117" s="19"/>
+      <c r="C117" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D117" s="21" t="str">
+        <f>IF(C117="A","蓝",IF(C117="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="23" customFormat="1">
+      <c r="A118" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="8" t="s">
+      <c r="B118" s="19"/>
+      <c r="C118" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D118" s="21" t="str">
+        <f>IF(C118="A","蓝",IF(C118="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="23" customFormat="1">
+      <c r="A119" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="B115" s="8"/>
-      <c r="C115" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="9" t="s">
+      <c r="B119" s="19"/>
+      <c r="C119" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D119" s="21" t="str">
+        <f>IF(C119="A","蓝",IF(C119="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E119" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="23" customFormat="1">
+      <c r="A120" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="B116" s="9"/>
-      <c r="C116" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="8" t="s">
+      <c r="B120" s="19"/>
+      <c r="C120" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D120" s="21" t="str">
+        <f>IF(C120="A","蓝",IF(C120="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E120" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="23" customFormat="1">
+      <c r="A121" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="B117" s="8"/>
-      <c r="C117" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="8" t="s">
+      <c r="B121" s="19"/>
+      <c r="C121" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D121" s="21" t="str">
+        <f>IF(C121="A","蓝",IF(C121="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E121" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="23" customFormat="1">
+      <c r="A122" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="B118" s="8"/>
-      <c r="C118" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="8" t="s">
+      <c r="B122" s="19"/>
+      <c r="C122" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D122" s="21" t="str">
+        <f>IF(C122="A","蓝",IF(C122="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E122" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="23" customFormat="1">
+      <c r="A123" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="B119" s="8"/>
-      <c r="C119" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="8" t="s">
+      <c r="B123" s="19"/>
+      <c r="C123" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D123" s="21" t="str">
+        <f>IF(C123="A","蓝",IF(C123="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E123" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="23" customFormat="1">
+      <c r="A124" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="B120" s="8"/>
-      <c r="C120" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="8" t="s">
+      <c r="B124" s="19"/>
+      <c r="C124" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D124" s="21" t="str">
+        <f>IF(C124="A","蓝",IF(C124="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="23" customFormat="1">
+      <c r="A125" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="8" t="s">
+      <c r="B125" s="19"/>
+      <c r="C125" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D125" s="21" t="str">
+        <f>IF(C125="A","蓝",IF(C125="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E125" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="23" customFormat="1">
+      <c r="A126" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="B122" s="8"/>
-      <c r="C122" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="8" t="s">
+      <c r="B126" s="20"/>
+      <c r="C126" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D126" s="21" t="str">
+        <f>IF(C126="A","蓝",IF(C126="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="23" customFormat="1">
+      <c r="A127" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="B123" s="8"/>
-      <c r="C123" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="8" t="s">
+      <c r="B127" s="19"/>
+      <c r="C127" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D127" s="21" t="str">
+        <f>IF(C127="A","蓝",IF(C127="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="23" customFormat="1">
+      <c r="A128" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="B124" s="8"/>
-      <c r="C124" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="8" t="s">
+      <c r="B128" s="19"/>
+      <c r="C128" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D128" s="21" t="str">
+        <f>IF(C128="A","蓝",IF(C128="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" s="23" customFormat="1">
+      <c r="A129" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="B125" s="8"/>
-      <c r="C125" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="9" t="s">
+      <c r="B129" s="19"/>
+      <c r="C129" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D129" s="21" t="str">
+        <f>IF(C129="A","蓝",IF(C129="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" s="23" customFormat="1">
+      <c r="A130" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="8" t="s">
+      <c r="B130" s="19"/>
+      <c r="C130" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D130" s="21" t="str">
+        <f>IF(C130="A","蓝",IF(C130="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E130" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" s="23" customFormat="1">
+      <c r="A131" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="B127" s="8"/>
-      <c r="C127" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="8" t="s">
+      <c r="B131" s="19"/>
+      <c r="C131" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D131" s="21" t="str">
+        <f>IF(C131="A","蓝",IF(C131="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" s="23" customFormat="1">
+      <c r="A132" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="B128" s="8"/>
-      <c r="C128" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="8" t="s">
+      <c r="B132" s="19"/>
+      <c r="C132" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D132" s="21" t="str">
+        <f>IF(C132="A","蓝",IF(C132="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E132" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" s="23" customFormat="1">
+      <c r="A133" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="B129" s="8"/>
-      <c r="C129" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="8" t="s">
+      <c r="B133" s="19"/>
+      <c r="C133" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D133" s="21" t="str">
+        <f>IF(C133="A","蓝",IF(C133="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E133" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" s="23" customFormat="1">
+      <c r="A134" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="8" t="s">
+      <c r="B134" s="19"/>
+      <c r="C134" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D134" s="21" t="str">
+        <f>IF(C134="A","蓝",IF(C134="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E134" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" s="23" customFormat="1">
+      <c r="A135" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="B131" s="8"/>
-      <c r="C131" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="8" t="s">
+      <c r="B135" s="19"/>
+      <c r="C135" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D135" s="21" t="str">
+        <f>IF(C135="A","蓝",IF(C135="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E135" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" s="23" customFormat="1">
+      <c r="A136" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="B132" s="8"/>
-      <c r="C132" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B134" s="8"/>
-      <c r="C134" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="8" t="s">
+      <c r="B136" s="19"/>
+      <c r="C136" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D136" s="21" t="str">
+        <f>IF(C136="A","蓝",IF(C136="SSS","橙","紫"))</f>
+        <v>蓝</v>
+      </c>
+      <c r="E136" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>209</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:X28">
-    <filterColumn colId="1"/>
-    <filterColumn colId="2"/>
-    <filterColumn colId="4" showButton="0"/>
-    <filterColumn colId="5" showButton="0"/>
+  <autoFilter ref="A1:X136">
+    <filterColumn colId="3"/>
     <filterColumn colId="6" showButton="0"/>
-    <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="10"/>
-    <filterColumn colId="12" showButton="0"/>
-    <filterColumn colId="13" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="14" showButton="0"/>
     <filterColumn colId="15" showButton="0"/>
     <filterColumn colId="16" showButton="0"/>
     <filterColumn colId="17" showButton="0"/>
     <filterColumn colId="18" showButton="0"/>
     <filterColumn colId="19" showButton="0"/>
+    <filterColumn colId="20" showButton="0"/>
+    <filterColumn colId="21" showButton="0"/>
   </autoFilter>
-  <mergeCells count="8">
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="M1:M2"/>
+  <mergeCells count="9">
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4043,175 +5082,175 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4232,13 +5271,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4249,7 +5288,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4260,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4271,7 +5310,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4282,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4293,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4304,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4315,7 +5354,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4326,7 +5365,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4337,7 +5376,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4348,7 +5387,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4359,7 +5398,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4370,7 +5409,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4381,7 +5420,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4392,7 +5431,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4403,7 +5442,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4414,7 +5453,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4425,7 +5464,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4436,7 +5475,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4447,7 +5486,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4458,7 +5497,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4469,7 +5508,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4480,7 +5519,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4491,7 +5530,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4502,7 +5541,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4513,7 +5552,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4524,1195 +5563,1195 @@
         <v>6</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B28" s="10">
         <v>1</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B29" s="10">
         <v>1</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B30" s="10">
         <v>1</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B31" s="10">
         <v>1</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B32" s="10">
         <v>1</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B33" s="10">
         <v>1</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B34" s="10">
         <v>1</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B35" s="10">
         <v>1</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B36" s="10">
         <v>1</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B37" s="10">
         <v>1</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B38" s="10">
         <v>2</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B39" s="10">
         <v>2</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B40" s="10">
         <v>2</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B41" s="10">
         <v>2</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B42" s="10">
         <v>2</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B43" s="10">
         <v>2</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B44" s="10">
         <v>2</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B45" s="10">
         <v>2</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B46" s="10">
         <v>2</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B47" s="10">
         <v>2</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B48" s="10">
         <v>3</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B49" s="10">
         <v>3</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B50" s="10">
         <v>3</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B51" s="10">
         <v>3</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B52" s="10">
         <v>3</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B53" s="10">
         <v>3</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B54" s="10">
         <v>3</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B55" s="10">
         <v>3</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B56" s="10">
         <v>3</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B57" s="10">
         <v>3</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B58" s="10">
         <v>4</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B59" s="10">
         <v>4</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B60" s="10">
         <v>4</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B61" s="10">
         <v>4</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B62" s="10">
         <v>4</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B63" s="10">
         <v>4</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B64" s="10">
         <v>4</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B65" s="10">
         <v>4</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B66" s="10">
         <v>4</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B67" s="10">
         <v>4</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B68" s="10">
         <v>1</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B69" s="10">
         <v>1</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B70" s="10">
         <v>1</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B71" s="10">
         <v>1</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B72" s="10">
         <v>1</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B73" s="10">
         <v>1</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B74" s="10">
         <v>1</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B75" s="10">
         <v>1</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B76" s="10">
         <v>1</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B77" s="10">
         <v>1</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B78" s="10">
         <v>2</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B79" s="10">
         <v>2</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B80" s="10">
         <v>2</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B81" s="10">
         <v>2</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B82" s="10">
         <v>2</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B83" s="10">
         <v>2</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B84" s="10">
         <v>2</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B85" s="10">
         <v>2</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B86" s="10">
         <v>2</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B87" s="11">
         <v>2</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B88" s="10">
         <v>3</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B89" s="10">
         <v>3</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B90" s="10">
         <v>3</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B91" s="10">
         <v>3</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B92" s="10">
         <v>3</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B93" s="10">
         <v>3</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B94" s="10">
         <v>3</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B95" s="10">
         <v>3</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B96" s="10">
         <v>3</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B97" s="10">
         <v>3</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B98" s="10">
         <v>4</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B99" s="10">
         <v>4</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B100" s="10">
         <v>4</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B101" s="10">
         <v>4</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B102" s="10">
         <v>4</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B103" s="10">
         <v>4</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B104" s="10">
         <v>4</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B105" s="10">
         <v>4</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B106" s="10">
         <v>4</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B107" s="10">
         <v>4</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B108" s="10">
         <v>1</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B109" s="10">
         <v>1</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B110" s="10">
         <v>1</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B111" s="10">
         <v>1</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B112" s="10">
         <v>2</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B113" s="10">
         <v>2</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B114" s="10">
         <v>2</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B115" s="10">
         <v>2</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B116" s="10">
         <v>2</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B117" s="10">
         <v>2</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B118" s="10">
         <v>2</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B119" s="10">
         <v>2</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B120" s="10">
         <v>2</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B121" s="10">
         <v>2</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B122" s="11">
         <v>3</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B123" s="10">
         <v>3</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B124" s="10">
         <v>3</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B125" s="10">
         <v>3</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B126" s="10">
         <v>3</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B127" s="10">
         <v>3</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B128" s="10">
         <v>3</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B129" s="10">
         <v>4</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B130" s="10">
         <v>4</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B131" s="10">
         <v>4</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B132" s="10">
         <v>4</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B133" s="10">
         <v>4</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B134" s="10">
         <v>4</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B135" s="10">
         <v>4</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="136" spans="1:3">

--- a/Document/武将技能及晋升资质.xlsx
+++ b/Document/武将技能及晋升资质.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="278">
   <si>
     <t>四维</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,39 +324,6 @@
         <charset val="134"/>
       </rPr>
       <t>法术伤害</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>增加百分之</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>闪避率，</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1032,6 +999,652 @@
   </si>
   <si>
     <t>都督*白虎：当陆逊装备法术武器时，普攻伤害增加X；当装备短兵时，白虎的防御增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当吕布装备横扫类装备时，攻击系数降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，攻击将会波及到其身后的所有目标；当装备远射类装备时，命中率提高百分之百</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌方单体造成300%~360%的伤害，并增加自身30%格挡率，持续2回合，调息5回合，无消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每当典韦成功格挡一次后，减少绝技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合调息时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>典韦阵亡后化身一个拥有最大血量百分之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的英灵继续战斗，持续两回合或英灵阵亡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终伤免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡后可以反击，造成百分之五十伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郭嘉阵亡后对敌方的全部敌人造成2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害并降低速度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加百分之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>闪避率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加百分之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>闪避率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当力量大于对方时，格挡反击伤害增加百分之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加百分之30格挡率，当体质大于对方时，格挡伤害降低10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当郭嘉装备法术类装备时，法术伤害提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对敌方随机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名目标造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150%~170%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的伤害，对晕眩状态的敌人伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，调息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合，消耗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点法力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>免疫晕眩效果，法术防御增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，物理防御降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对敌方单体造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>320%~360%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的伤害，并附加封技两回合，调息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合，无消耗</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先机技：奇计：战斗开始时，敌方所有人有百分之20几率陷入晕眩状态，持续一回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先机技：水淹七军：战斗开始时，对敌方所有敌人造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害附加速度降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流言：对单体目标造成120%伤害，50%附加晕眩一回合，调息2回合，消耗80点法力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少绝技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合调息时间，流言的晕眩率提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>免疫封技，当力量大于对手时，伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当关羽击杀一个目标后，绝技的调息时间减少2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当友方武将对敌方目标暴击时，关羽会随后对该目标造成150%的伤害，最多触发7次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽死亡时对击杀者造成400%的伤害，并附加封技1回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,18 +1786,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFill="1">
@@ -1205,17 +1806,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1516,95 +2129,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="28"/>
+    <col min="1" max="1" width="9" style="22"/>
     <col min="2" max="6" width="9" style="3"/>
     <col min="7" max="10" width="8" style="3" customWidth="1"/>
     <col min="11" max="13" width="17.625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="15.625" style="3" hidden="1" customWidth="1"/>
-    <col min="15" max="18" width="30.625" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="42.5" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="11.375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="20.875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="24.625" style="3" customWidth="1"/>
     <col min="19" max="19" width="44.5" style="3" customWidth="1"/>
     <col min="20" max="23" width="30.625" style="3" customWidth="1"/>
     <col min="24" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="D1" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
       <c r="K1" s="4"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="26"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="N2" s="16"/>
+        <v>217</v>
+      </c>
+      <c r="N2" s="25"/>
       <c r="O2" s="5" t="s">
         <v>29</v>
       </c>
@@ -1633,25 +2249,25 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="42">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:23" ht="54.75">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D3" s="13" t="str">
-        <f>IF(C3="A","蓝",IF(C3="SSS","橙","紫"))</f>
+        <f t="shared" ref="D3:D34" si="0">IF(C3="A","蓝",IF(C3="SSS","橙","紫"))</f>
         <v>橙</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="3">
         <v>99</v>
@@ -1666,38 +2282,65 @@
         <v>100</v>
       </c>
       <c r="K3" s="3">
-        <f>SUM(G3:J3)</f>
+        <f t="shared" ref="K3:K28" si="1">SUM(G3:J3)</f>
         <v>361</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="54.75">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D4" s="13" t="str">
-        <f>IF(C4="A","蓝",IF(C4="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>紫</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="3">
         <v>70</v>
@@ -1712,32 +2355,62 @@
         <v>68</v>
       </c>
       <c r="K4" s="3">
-        <f>SUM(G4:J4)</f>
+        <f t="shared" si="1"/>
         <v>331</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D5" s="13" t="str">
-        <f>IF(C5="A","蓝",IF(C5="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>紫</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="3">
         <v>72</v>
@@ -1752,33 +2425,33 @@
         <v>92</v>
       </c>
       <c r="K5" s="3">
-        <f>SUM(G5:J5)</f>
+        <f t="shared" si="1"/>
         <v>336</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="13" t="str">
-        <f>IF(C6="A","蓝",IF(C6="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>橙</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="3">
         <v>68</v>
@@ -1793,35 +2466,35 @@
         <v>95</v>
       </c>
       <c r="K6" s="3">
-        <f>SUM(G6:J6)</f>
+        <f t="shared" si="1"/>
         <v>355</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" s="13" t="str">
-        <f>IF(C7="A","蓝",IF(C7="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>紫</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" s="3">
         <v>98</v>
@@ -1836,35 +2509,35 @@
         <v>99</v>
       </c>
       <c r="K7" s="3">
-        <f>SUM(G7:J7)</f>
+        <f t="shared" si="1"/>
         <v>335</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="40.5">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D8" s="13" t="str">
-        <f>IF(C8="A","蓝",IF(C8="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>紫</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="3">
         <v>95</v>
@@ -1879,38 +2552,38 @@
         <v>95</v>
       </c>
       <c r="K8" s="3">
-        <f>SUM(G8:J8)</f>
+        <f t="shared" si="1"/>
         <v>359</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="S8" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="27.75">
-      <c r="A9" s="24" t="s">
+      <c r="S8" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="41.25">
+      <c r="A9" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D9" s="13" t="str">
-        <f>IF(C9="A","蓝",IF(C9="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>紫</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="3">
         <v>96</v>
@@ -1925,35 +2598,62 @@
         <v>90</v>
       </c>
       <c r="K9" s="3">
-        <f>SUM(G9:J9)</f>
+        <f t="shared" si="1"/>
         <v>359</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D10" s="13" t="str">
-        <f>IF(C10="A","蓝",IF(C10="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>紫</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" s="3">
         <v>92</v>
@@ -1968,35 +2668,35 @@
         <v>88</v>
       </c>
       <c r="K10" s="3">
-        <f>SUM(G10:J10)</f>
+        <f t="shared" si="1"/>
         <v>346</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D11" s="13" t="str">
-        <f>IF(C11="A","蓝",IF(C11="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>紫</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="3">
         <v>72</v>
@@ -2011,32 +2711,32 @@
         <v>90</v>
       </c>
       <c r="K11" s="3">
-        <f>SUM(G11:J11)</f>
+        <f t="shared" si="1"/>
         <v>339</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="27.75">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D12" s="13" t="str">
-        <f>IF(C12="A","蓝",IF(C12="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>紫</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="3">
         <v>99</v>
@@ -2051,36 +2751,36 @@
         <v>96</v>
       </c>
       <c r="K12" s="3">
-        <f>SUM(G12:J12)</f>
+        <f t="shared" si="1"/>
         <v>353</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M12" s="2"/>
       <c r="S12" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="41.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D13" s="13" t="str">
-        <f>IF(C13="A","蓝",IF(C13="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>橙</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" s="3">
         <v>94</v>
@@ -2095,38 +2795,38 @@
         <v>90</v>
       </c>
       <c r="K13" s="3">
-        <f>SUM(G13:J13)</f>
+        <f t="shared" si="1"/>
         <v>370</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D14" s="13" t="str">
-        <f>IF(C14="A","蓝",IF(C14="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>橙</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" s="3">
         <v>66</v>
@@ -2141,32 +2841,32 @@
         <v>78</v>
       </c>
       <c r="K14" s="3">
-        <f>SUM(G14:J14)</f>
+        <f t="shared" si="1"/>
         <v>334</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="41.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D15" s="13" t="str">
-        <f>IF(C15="A","蓝",IF(C15="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>紫</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" s="3">
         <v>96</v>
@@ -2181,38 +2881,38 @@
         <v>90</v>
       </c>
       <c r="K15" s="3">
-        <f>SUM(G15:J15)</f>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="27.75">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D16" s="13" t="str">
-        <f>IF(C16="A","蓝",IF(C16="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>紫</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="3">
         <v>72</v>
@@ -2227,38 +2927,38 @@
         <v>88</v>
       </c>
       <c r="K16" s="3">
-        <f>SUM(G16:J16)</f>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D17" s="13" t="str">
-        <f>IF(C17="A","蓝",IF(C17="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>紫</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="3">
         <v>90</v>
@@ -2273,38 +2973,38 @@
         <v>90</v>
       </c>
       <c r="K17" s="3">
-        <f>SUM(G17:J17)</f>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D18" s="13" t="str">
-        <f>IF(C18="A","蓝",IF(C18="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>橙</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="3">
         <v>96</v>
@@ -2319,35 +3019,35 @@
         <v>88</v>
       </c>
       <c r="K18" s="3">
-        <f>SUM(G18:J18)</f>
+        <f t="shared" si="1"/>
         <v>354</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D19" s="13" t="str">
-        <f>IF(C19="A","蓝",IF(C19="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>紫</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="3">
         <v>97</v>
@@ -2362,35 +3062,35 @@
         <v>88</v>
       </c>
       <c r="K19" s="3">
-        <f>SUM(G19:J19)</f>
+        <f t="shared" si="1"/>
         <v>358</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D20" s="13" t="str">
-        <f>IF(C20="A","蓝",IF(C20="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>橙</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" s="3">
         <v>84</v>
@@ -2405,38 +3105,38 @@
         <v>79</v>
       </c>
       <c r="K20" s="3">
-        <f>SUM(G20:J20)</f>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D21" s="13" t="str">
-        <f>IF(C21="A","蓝",IF(C21="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>紫</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" s="3">
         <v>67</v>
@@ -2451,32 +3151,32 @@
         <v>80</v>
       </c>
       <c r="K21" s="3">
-        <f>SUM(G21:J21)</f>
+        <f t="shared" si="1"/>
         <v>336</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" s="24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="42">
+      <c r="A22" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D22" s="13" t="str">
-        <f>IF(C22="A","蓝",IF(C22="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>橙</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -2491,35 +3191,38 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <f>SUM(G22:J22)</f>
+        <f t="shared" si="1"/>
         <v>357</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D23" s="13" t="str">
-        <f>IF(C23="A","蓝",IF(C23="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>紫</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="3">
         <v>90</v>
@@ -2534,32 +3237,32 @@
         <v>90</v>
       </c>
       <c r="K23" s="3">
-        <f>SUM(G23:J23)</f>
+        <f t="shared" si="1"/>
         <v>370</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D24" s="13" t="str">
-        <f>IF(C24="A","蓝",IF(C24="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>紫</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24" s="3">
         <v>71</v>
@@ -2574,32 +3277,32 @@
         <v>82</v>
       </c>
       <c r="K24" s="3">
-        <f>SUM(G24:J24)</f>
+        <f t="shared" si="1"/>
         <v>335</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="42">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D25" s="13" t="str">
-        <f>IF(C25="A","蓝",IF(C25="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>紫</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" s="3">
         <v>76</v>
@@ -2614,44 +3317,44 @@
         <v>87</v>
       </c>
       <c r="K25" s="3">
-        <f>SUM(G25:J25)</f>
+        <f t="shared" si="1"/>
         <v>345</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U25" s="2" t="s">
         <v>76</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="W25" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="41.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D26" s="13" t="str">
-        <f>IF(C26="A","蓝",IF(C26="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>橙</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" s="3">
         <v>77</v>
@@ -2666,2373 +3369,2373 @@
         <v>77</v>
       </c>
       <c r="K26" s="3">
-        <f>SUM(G26:J26)</f>
+        <f t="shared" si="1"/>
         <v>352</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V26" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D27" s="13" t="str">
-        <f>IF(C27="A","蓝",IF(C27="SSS","橙","紫"))</f>
+        <f t="shared" si="0"/>
         <v>紫</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K27" s="3">
-        <f>SUM(G27:J27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L27" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>紫</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>紫</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>紫</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>紫</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>紫</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>紫</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>紫</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
-      <c r="A28" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D28" s="13" t="str">
-        <f>IF(C28="A","蓝",IF(C28="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K28" s="3">
-        <f>SUM(G28:J28)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="2" t="s">
+    <row r="35" spans="1:13">
+      <c r="A35" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="13" t="str">
+        <f t="shared" ref="D35:D66" si="2">IF(C35="A","蓝",IF(C35="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
-      <c r="A29" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="8" t="s">
+    <row r="38" spans="1:13">
+      <c r="A38" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" s="13" t="str">
-        <f>IF(C29="A","蓝",IF(C29="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="C40" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F40" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L43" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M44" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
-      <c r="A30" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="13" t="s">
+    <row r="45" spans="1:13">
+      <c r="A45" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D30" s="13" t="str">
-        <f>IF(C30="A","蓝",IF(C30="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="C48" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F48" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L53" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L54" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="A31" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="13" t="s">
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" s="13" t="str">
-        <f>IF(C31="A","蓝",IF(C31="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="C58" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D65" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>紫</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" s="13" t="str">
+        <f t="shared" ref="D67:D98" si="3">IF(C67="A","蓝",IF(C67="SSS","橙","紫"))</f>
+        <v>紫</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D68" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>紫</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>紫</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>紫</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>紫</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>紫</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>紫</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D74" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>紫</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D75" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>紫</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>紫</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>紫</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>紫</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>紫</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="A32" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" s="13" t="str">
-        <f>IF(C32="A","蓝",IF(C32="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="F79" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D80" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>紫</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D33" s="13" t="str">
-        <f>IF(C33="A","蓝",IF(C33="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="F80" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D81" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>紫</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" s="13" t="str">
-        <f>IF(C34="A","蓝",IF(C34="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D35" s="13" t="str">
-        <f>IF(C35="A","蓝",IF(C35="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D36" s="13" t="str">
-        <f>IF(C36="A","蓝",IF(C36="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="13" t="str">
-        <f>IF(C37="A","蓝",IF(C37="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D38" s="13" t="str">
-        <f>IF(C38="A","蓝",IF(C38="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D39" s="13" t="str">
-        <f>IF(C39="A","蓝",IF(C39="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" s="13" t="str">
-        <f>IF(C40="A","蓝",IF(C40="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D41" s="13" t="str">
-        <f>IF(C41="A","蓝",IF(C41="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" s="13" t="str">
-        <f>IF(C42="A","蓝",IF(C42="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="L42" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D43" s="13" t="str">
-        <f>IF(C43="A","蓝",IF(C43="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" s="13" t="str">
-        <f>IF(C44="A","蓝",IF(C44="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D45" s="13" t="str">
-        <f>IF(C45="A","蓝",IF(C45="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D46" s="13" t="str">
-        <f>IF(C46="A","蓝",IF(C46="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D47" s="13" t="str">
-        <f>IF(C47="A","蓝",IF(C47="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D48" s="13" t="str">
-        <f>IF(C48="A","蓝",IF(C48="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D49" s="13" t="str">
-        <f>IF(C49="A","蓝",IF(C49="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D50" s="13" t="str">
-        <f>IF(C50="A","蓝",IF(C50="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D51" s="13" t="str">
-        <f>IF(C51="A","蓝",IF(C51="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D52" s="13" t="str">
-        <f>IF(C52="A","蓝",IF(C52="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D53" s="13" t="str">
-        <f>IF(C53="A","蓝",IF(C53="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D54" s="13" t="str">
-        <f>IF(C54="A","蓝",IF(C54="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D55" s="13" t="str">
-        <f>IF(C55="A","蓝",IF(C55="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D56" s="13" t="str">
-        <f>IF(C56="A","蓝",IF(C56="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D57" s="13" t="str">
-        <f>IF(C57="A","蓝",IF(C57="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D58" s="13" t="str">
-        <f>IF(C58="A","蓝",IF(C58="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D59" s="13" t="str">
-        <f>IF(C59="A","蓝",IF(C59="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D60" s="13" t="str">
-        <f>IF(C60="A","蓝",IF(C60="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D61" s="13" t="str">
-        <f>IF(C61="A","蓝",IF(C61="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D62" s="13" t="str">
-        <f>IF(C62="A","蓝",IF(C62="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63" s="13" t="str">
-        <f>IF(C63="A","蓝",IF(C63="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D64" s="13" t="str">
-        <f>IF(C64="A","蓝",IF(C64="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D65" s="13" t="str">
-        <f>IF(C65="A","蓝",IF(C65="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D66" s="13" t="str">
-        <f>IF(C66="A","蓝",IF(C66="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D67" s="13" t="str">
-        <f>IF(C67="A","蓝",IF(C67="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D68" s="13" t="str">
-        <f>IF(C68="A","蓝",IF(C68="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D69" s="13" t="str">
-        <f>IF(C69="A","蓝",IF(C69="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D70" s="13" t="str">
-        <f>IF(C70="A","蓝",IF(C70="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D71" s="13" t="str">
-        <f>IF(C71="A","蓝",IF(C71="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D72" s="13" t="str">
-        <f>IF(C72="A","蓝",IF(C72="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D73" s="13" t="str">
-        <f>IF(C73="A","蓝",IF(C73="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D74" s="13" t="str">
-        <f>IF(C74="A","蓝",IF(C74="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D75" s="13" t="str">
-        <f>IF(C75="A","蓝",IF(C75="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D76" s="13" t="str">
-        <f>IF(C76="A","蓝",IF(C76="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D77" s="13" t="str">
-        <f>IF(C77="A","蓝",IF(C77="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D78" s="13" t="str">
-        <f>IF(C78="A","蓝",IF(C78="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D79" s="13" t="str">
-        <f>IF(C79="A","蓝",IF(C79="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D80" s="13" t="str">
-        <f>IF(C80="A","蓝",IF(C80="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="24" t="s">
+      <c r="L81" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="20" t="s">
         <v>116</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D81" s="13" t="str">
-        <f>IF(C81="A","蓝",IF(C81="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="24" t="s">
-        <v>117</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D82" s="13" t="str">
-        <f>IF(C82="A","蓝",IF(C82="SSS","橙","紫"))</f>
+        <f t="shared" si="3"/>
         <v>紫</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="24" t="s">
-        <v>118</v>
+      <c r="A83" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D83" s="13" t="str">
-        <f>IF(C83="A","蓝",IF(C83="SSS","橙","紫"))</f>
+        <f t="shared" si="3"/>
         <v>紫</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="27" t="s">
-        <v>119</v>
+      <c r="A84" s="21" t="s">
+        <v>118</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D84" s="13" t="str">
-        <f>IF(C84="A","蓝",IF(C84="SSS","橙","紫"))</f>
+        <f t="shared" si="3"/>
         <v>紫</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="24" t="s">
-        <v>120</v>
+      <c r="A85" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D85" s="13" t="str">
-        <f>IF(C85="A","蓝",IF(C85="SSS","橙","紫"))</f>
+        <f t="shared" si="3"/>
         <v>紫</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="24" t="s">
-        <v>121</v>
+      <c r="A86" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D86" s="13" t="str">
-        <f>IF(C86="A","蓝",IF(C86="SSS","橙","紫"))</f>
+        <f t="shared" si="3"/>
         <v>紫</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="24" t="s">
-        <v>122</v>
+      <c r="A87" s="20" t="s">
+        <v>121</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D87" s="13" t="str">
-        <f>IF(C87="A","蓝",IF(C87="SSS","橙","紫"))</f>
+        <f t="shared" si="3"/>
         <v>紫</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="24" t="s">
-        <v>123</v>
+      <c r="A88" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D88" s="13" t="str">
-        <f>IF(C88="A","蓝",IF(C88="SSS","橙","紫"))</f>
+        <f t="shared" si="3"/>
         <v>紫</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="24" t="s">
-        <v>134</v>
+      <c r="A89" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D89" s="13" t="str">
-        <f>IF(C89="A","蓝",IF(C89="SSS","橙","紫"))</f>
+        <f t="shared" si="3"/>
         <v>紫</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="24" t="s">
-        <v>135</v>
+      <c r="A90" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D90" s="13" t="str">
-        <f>IF(C90="A","蓝",IF(C90="SSS","橙","紫"))</f>
+        <f t="shared" si="3"/>
         <v>紫</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="24" t="s">
-        <v>136</v>
+      <c r="A91" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D91" s="13" t="str">
-        <f>IF(C91="A","蓝",IF(C91="SSS","橙","紫"))</f>
+        <f t="shared" si="3"/>
         <v>紫</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="24" t="s">
-        <v>137</v>
+      <c r="A92" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D92" s="13" t="str">
-        <f>IF(C92="A","蓝",IF(C92="SSS","橙","紫"))</f>
+        <f t="shared" si="3"/>
         <v>紫</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="27" t="s">
-        <v>138</v>
+      <c r="A93" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D93" s="13" t="str">
-        <f>IF(C93="A","蓝",IF(C93="SSS","橙","紫"))</f>
+        <f t="shared" si="3"/>
         <v>紫</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="24" t="s">
-        <v>139</v>
+      <c r="A94" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D94" s="13" t="str">
-        <f>IF(C94="A","蓝",IF(C94="SSS","橙","紫"))</f>
+        <f t="shared" si="3"/>
         <v>紫</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="24" t="s">
-        <v>140</v>
+      <c r="A95" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D95" s="13" t="str">
-        <f>IF(C95="A","蓝",IF(C95="SSS","橙","紫"))</f>
+        <f t="shared" si="3"/>
         <v>紫</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="24" t="s">
-        <v>141</v>
+      <c r="A96" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D96" s="13" t="str">
-        <f>IF(C96="A","蓝",IF(C96="SSS","橙","紫"))</f>
+        <f t="shared" si="3"/>
         <v>紫</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="24" t="s">
-        <v>142</v>
+      <c r="A97" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D97" s="13" t="str">
-        <f>IF(C97="A","蓝",IF(C97="SSS","橙","紫"))</f>
+        <f t="shared" si="3"/>
         <v>紫</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="24" t="s">
-        <v>143</v>
+      <c r="A98" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D98" s="13" t="str">
-        <f>IF(C98="A","蓝",IF(C98="SSS","橙","紫"))</f>
+        <f t="shared" si="3"/>
         <v>紫</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="24" t="s">
-        <v>154</v>
+      <c r="A99" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D99" s="13" t="str">
-        <f>IF(C99="A","蓝",IF(C99="SSS","橙","紫"))</f>
+        <f t="shared" ref="D99:D130" si="4">IF(C99="A","蓝",IF(C99="SSS","橙","紫"))</f>
         <v>紫</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="24" t="s">
-        <v>155</v>
+      <c r="A100" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D100" s="13" t="str">
-        <f>IF(C100="A","蓝",IF(C100="SSS","橙","紫"))</f>
+        <f t="shared" si="4"/>
         <v>紫</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="24" t="s">
-        <v>156</v>
+      <c r="A101" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D101" s="13" t="str">
-        <f>IF(C101="A","蓝",IF(C101="SSS","橙","紫"))</f>
+        <f t="shared" si="4"/>
         <v>紫</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="24" t="s">
-        <v>157</v>
+      <c r="A102" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D102" s="13" t="str">
-        <f>IF(C102="A","蓝",IF(C102="SSS","橙","紫"))</f>
+        <f t="shared" si="4"/>
         <v>紫</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="24" t="s">
-        <v>158</v>
+      <c r="A103" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D103" s="13" t="str">
-        <f>IF(C103="A","蓝",IF(C103="SSS","橙","紫"))</f>
+        <f t="shared" si="4"/>
         <v>紫</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="24" t="s">
-        <v>159</v>
+      <c r="A104" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D104" s="13" t="str">
-        <f>IF(C104="A","蓝",IF(C104="SSS","橙","紫"))</f>
+        <f t="shared" si="4"/>
         <v>紫</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="24" t="s">
-        <v>160</v>
+      <c r="A105" s="20" t="s">
+        <v>159</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D105" s="13" t="str">
-        <f>IF(C105="A","蓝",IF(C105="SSS","橙","紫"))</f>
+        <f t="shared" si="4"/>
         <v>紫</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="24" t="s">
-        <v>161</v>
+      <c r="A106" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D106" s="13" t="str">
-        <f>IF(C106="A","蓝",IF(C106="SSS","橙","紫"))</f>
+        <f t="shared" si="4"/>
         <v>紫</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="24" t="s">
-        <v>162</v>
+      <c r="A107" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D107" s="13" t="str">
-        <f>IF(C107="A","蓝",IF(C107="SSS","橙","紫"))</f>
+        <f t="shared" si="4"/>
         <v>紫</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="24" t="s">
-        <v>163</v>
+      <c r="A108" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D108" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>紫</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="19" customFormat="1">
+      <c r="A109" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D108" s="13" t="str">
-        <f>IF(C108="A","蓝",IF(C108="SSS","橙","紫"))</f>
-        <v>紫</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" s="23" customFormat="1">
-      <c r="A109" s="19" t="s">
+      <c r="B109" s="15"/>
+      <c r="C109" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="B109" s="19"/>
-      <c r="C109" s="20" t="s">
+      <c r="D109" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>蓝</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="F109" s="18"/>
+    </row>
+    <row r="110" spans="1:6" s="19" customFormat="1">
+      <c r="A110" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D109" s="21" t="str">
-        <f>IF(C109="A","蓝",IF(C109="SSS","橙","紫"))</f>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D110" s="17" t="str">
+        <f t="shared" si="4"/>
         <v>蓝</v>
       </c>
-      <c r="E109" s="22" t="s">
+      <c r="E110" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="F110" s="18"/>
+    </row>
+    <row r="111" spans="1:6" s="19" customFormat="1">
+      <c r="A111" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B111" s="15"/>
+      <c r="C111" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D111" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>蓝</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="F111" s="18"/>
+    </row>
+    <row r="112" spans="1:6" s="19" customFormat="1">
+      <c r="A112" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D112" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>蓝</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="F112" s="18"/>
+    </row>
+    <row r="113" spans="1:6" s="19" customFormat="1">
+      <c r="A113" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B113" s="15"/>
+      <c r="C113" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D113" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>蓝</v>
+      </c>
+      <c r="E113" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F109" s="22"/>
-    </row>
-    <row r="110" spans="1:6" s="23" customFormat="1">
-      <c r="A110" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="B110" s="20"/>
-      <c r="C110" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D110" s="21" t="str">
-        <f>IF(C110="A","蓝",IF(C110="SSS","橙","紫"))</f>
+      <c r="F113" s="18"/>
+    </row>
+    <row r="114" spans="1:6" s="19" customFormat="1">
+      <c r="A114" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B114" s="15"/>
+      <c r="C114" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D114" s="17" t="str">
+        <f t="shared" si="4"/>
         <v>蓝</v>
       </c>
-      <c r="E110" s="22" t="s">
+      <c r="E114" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F110" s="22"/>
-    </row>
-    <row r="111" spans="1:6" s="23" customFormat="1">
-      <c r="A111" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B111" s="19"/>
-      <c r="C111" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D111" s="21" t="str">
-        <f>IF(C111="A","蓝",IF(C111="SSS","橙","紫"))</f>
+      <c r="F114" s="18"/>
+    </row>
+    <row r="115" spans="1:6" s="19" customFormat="1">
+      <c r="A115" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B115" s="15"/>
+      <c r="C115" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D115" s="17" t="str">
+        <f t="shared" si="4"/>
         <v>蓝</v>
       </c>
-      <c r="E111" s="22" t="s">
+      <c r="E115" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F111" s="22"/>
-    </row>
-    <row r="112" spans="1:6" s="23" customFormat="1">
-      <c r="A112" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="B112" s="20"/>
-      <c r="C112" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D112" s="21" t="str">
-        <f>IF(C112="A","蓝",IF(C112="SSS","橙","紫"))</f>
+    </row>
+    <row r="116" spans="1:6" s="19" customFormat="1">
+      <c r="A116" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B116" s="16"/>
+      <c r="C116" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D116" s="17" t="str">
+        <f t="shared" si="4"/>
         <v>蓝</v>
       </c>
-      <c r="E112" s="22" t="s">
+      <c r="E116" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F112" s="22"/>
-    </row>
-    <row r="113" spans="1:6" s="23" customFormat="1">
-      <c r="A113" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B113" s="19"/>
-      <c r="C113" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D113" s="21" t="str">
-        <f>IF(C113="A","蓝",IF(C113="SSS","橙","紫"))</f>
+    </row>
+    <row r="117" spans="1:6" s="19" customFormat="1">
+      <c r="A117" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B117" s="15"/>
+      <c r="C117" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D117" s="17" t="str">
+        <f t="shared" si="4"/>
         <v>蓝</v>
       </c>
-      <c r="E113" s="22" t="s">
+      <c r="E117" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="19" customFormat="1">
+      <c r="A118" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B118" s="15"/>
+      <c r="C118" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D118" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>蓝</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="19" customFormat="1">
+      <c r="A119" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B119" s="15"/>
+      <c r="C119" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D119" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>蓝</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="19" customFormat="1">
+      <c r="A120" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B120" s="15"/>
+      <c r="C120" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D120" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>蓝</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="19" customFormat="1">
+      <c r="A121" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B121" s="15"/>
+      <c r="C121" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D121" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>蓝</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="19" customFormat="1">
+      <c r="A122" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B122" s="15"/>
+      <c r="C122" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D122" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>蓝</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="19" customFormat="1">
+      <c r="A123" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B123" s="15"/>
+      <c r="C123" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D123" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>蓝</v>
+      </c>
+      <c r="E123" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F113" s="22"/>
-    </row>
-    <row r="114" spans="1:6" s="23" customFormat="1">
-      <c r="A114" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="B114" s="19"/>
-      <c r="C114" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D114" s="21" t="str">
-        <f>IF(C114="A","蓝",IF(C114="SSS","橙","紫"))</f>
+    </row>
+    <row r="124" spans="1:6" s="19" customFormat="1">
+      <c r="A124" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B124" s="15"/>
+      <c r="C124" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D124" s="17" t="str">
+        <f t="shared" si="4"/>
         <v>蓝</v>
       </c>
-      <c r="E114" s="22" t="s">
+      <c r="E124" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F114" s="22"/>
-    </row>
-    <row r="115" spans="1:6" s="23" customFormat="1">
-      <c r="A115" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B115" s="19"/>
-      <c r="C115" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D115" s="21" t="str">
-        <f>IF(C115="A","蓝",IF(C115="SSS","橙","紫"))</f>
+    </row>
+    <row r="125" spans="1:6" s="19" customFormat="1">
+      <c r="A125" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B125" s="15"/>
+      <c r="C125" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D125" s="17" t="str">
+        <f t="shared" si="4"/>
         <v>蓝</v>
       </c>
-      <c r="E115" s="22" t="s">
+      <c r="E125" s="18" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="23" customFormat="1">
-      <c r="A116" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="B116" s="20"/>
-      <c r="C116" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D116" s="21" t="str">
-        <f>IF(C116="A","蓝",IF(C116="SSS","橙","紫"))</f>
+    <row r="126" spans="1:6" s="19" customFormat="1">
+      <c r="A126" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B126" s="16"/>
+      <c r="C126" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D126" s="17" t="str">
+        <f t="shared" si="4"/>
         <v>蓝</v>
       </c>
-      <c r="E116" s="22" t="s">
+      <c r="E126" s="18" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="23" customFormat="1">
-      <c r="A117" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B117" s="19"/>
-      <c r="C117" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D117" s="21" t="str">
-        <f>IF(C117="A","蓝",IF(C117="SSS","橙","紫"))</f>
+    <row r="127" spans="1:6" s="19" customFormat="1">
+      <c r="A127" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B127" s="15"/>
+      <c r="C127" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D127" s="17" t="str">
+        <f t="shared" si="4"/>
         <v>蓝</v>
       </c>
-      <c r="E117" s="22" t="s">
+      <c r="E127" s="18" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="23" customFormat="1">
-      <c r="A118" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B118" s="19"/>
-      <c r="C118" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D118" s="21" t="str">
-        <f>IF(C118="A","蓝",IF(C118="SSS","橙","紫"))</f>
+    <row r="128" spans="1:6" s="19" customFormat="1">
+      <c r="A128" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B128" s="15"/>
+      <c r="C128" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D128" s="17" t="str">
+        <f t="shared" si="4"/>
         <v>蓝</v>
       </c>
-      <c r="E118" s="22" t="s">
+      <c r="E128" s="18" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="23" customFormat="1">
-      <c r="A119" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="B119" s="19"/>
-      <c r="C119" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D119" s="21" t="str">
-        <f>IF(C119="A","蓝",IF(C119="SSS","橙","紫"))</f>
+    <row r="129" spans="1:5" s="19" customFormat="1">
+      <c r="A129" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B129" s="15"/>
+      <c r="C129" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D129" s="17" t="str">
+        <f t="shared" si="4"/>
         <v>蓝</v>
       </c>
-      <c r="E119" s="22" t="s">
+      <c r="E129" s="18" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="23" customFormat="1">
-      <c r="A120" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B120" s="19"/>
-      <c r="C120" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D120" s="21" t="str">
-        <f>IF(C120="A","蓝",IF(C120="SSS","橙","紫"))</f>
+    <row r="130" spans="1:5" s="19" customFormat="1">
+      <c r="A130" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D130" s="17" t="str">
+        <f t="shared" si="4"/>
         <v>蓝</v>
       </c>
-      <c r="E120" s="22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" s="23" customFormat="1">
-      <c r="A121" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="B121" s="19"/>
-      <c r="C121" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D121" s="21" t="str">
-        <f>IF(C121="A","蓝",IF(C121="SSS","橙","紫"))</f>
+      <c r="E130" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" s="19" customFormat="1">
+      <c r="A131" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B131" s="15"/>
+      <c r="C131" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D131" s="17" t="str">
+        <f t="shared" ref="D131:D136" si="5">IF(C131="A","蓝",IF(C131="SSS","橙","紫"))</f>
         <v>蓝</v>
       </c>
-      <c r="E121" s="22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" s="23" customFormat="1">
-      <c r="A122" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="B122" s="19"/>
-      <c r="C122" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D122" s="21" t="str">
-        <f>IF(C122="A","蓝",IF(C122="SSS","橙","紫"))</f>
+      <c r="E131" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" s="19" customFormat="1">
+      <c r="A132" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B132" s="15"/>
+      <c r="C132" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D132" s="17" t="str">
+        <f t="shared" si="5"/>
         <v>蓝</v>
       </c>
-      <c r="E122" s="22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" s="23" customFormat="1">
-      <c r="A123" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B123" s="19"/>
-      <c r="C123" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D123" s="21" t="str">
-        <f>IF(C123="A","蓝",IF(C123="SSS","橙","紫"))</f>
+      <c r="E132" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" s="19" customFormat="1">
+      <c r="A133" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D133" s="17" t="str">
+        <f t="shared" si="5"/>
         <v>蓝</v>
       </c>
-      <c r="E123" s="22" t="s">
+      <c r="E133" s="18" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="23" customFormat="1">
-      <c r="A124" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B124" s="19"/>
-      <c r="C124" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D124" s="21" t="str">
-        <f>IF(C124="A","蓝",IF(C124="SSS","橙","紫"))</f>
+    <row r="134" spans="1:5" s="19" customFormat="1">
+      <c r="A134" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B134" s="15"/>
+      <c r="C134" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D134" s="17" t="str">
+        <f t="shared" si="5"/>
         <v>蓝</v>
       </c>
-      <c r="E124" s="22" t="s">
+      <c r="E134" s="18" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="23" customFormat="1">
-      <c r="A125" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B125" s="19"/>
-      <c r="C125" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D125" s="21" t="str">
-        <f>IF(C125="A","蓝",IF(C125="SSS","橙","紫"))</f>
+    <row r="135" spans="1:5" s="19" customFormat="1">
+      <c r="A135" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D135" s="17" t="str">
+        <f t="shared" si="5"/>
         <v>蓝</v>
       </c>
-      <c r="E125" s="22" t="s">
+      <c r="E135" s="18" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="23" customFormat="1">
-      <c r="A126" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="B126" s="20"/>
-      <c r="C126" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D126" s="21" t="str">
-        <f>IF(C126="A","蓝",IF(C126="SSS","橙","紫"))</f>
+    <row r="136" spans="1:5" s="19" customFormat="1">
+      <c r="A136" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D136" s="17" t="str">
+        <f t="shared" si="5"/>
         <v>蓝</v>
       </c>
-      <c r="E126" s="22" t="s">
+      <c r="E136" s="18" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" s="23" customFormat="1">
-      <c r="A127" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B127" s="19"/>
-      <c r="C127" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D127" s="21" t="str">
-        <f>IF(C127="A","蓝",IF(C127="SSS","橙","紫"))</f>
-        <v>蓝</v>
-      </c>
-      <c r="E127" s="22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" s="23" customFormat="1">
-      <c r="A128" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B128" s="19"/>
-      <c r="C128" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D128" s="21" t="str">
-        <f>IF(C128="A","蓝",IF(C128="SSS","橙","紫"))</f>
-        <v>蓝</v>
-      </c>
-      <c r="E128" s="22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" s="23" customFormat="1">
-      <c r="A129" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="B129" s="19"/>
-      <c r="C129" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D129" s="21" t="str">
-        <f>IF(C129="A","蓝",IF(C129="SSS","橙","紫"))</f>
-        <v>蓝</v>
-      </c>
-      <c r="E129" s="22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" s="23" customFormat="1">
-      <c r="A130" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B130" s="19"/>
-      <c r="C130" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D130" s="21" t="str">
-        <f>IF(C130="A","蓝",IF(C130="SSS","橙","紫"))</f>
-        <v>蓝</v>
-      </c>
-      <c r="E130" s="22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" s="23" customFormat="1">
-      <c r="A131" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="B131" s="19"/>
-      <c r="C131" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D131" s="21" t="str">
-        <f>IF(C131="A","蓝",IF(C131="SSS","橙","紫"))</f>
-        <v>蓝</v>
-      </c>
-      <c r="E131" s="22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" s="23" customFormat="1">
-      <c r="A132" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="B132" s="19"/>
-      <c r="C132" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D132" s="21" t="str">
-        <f>IF(C132="A","蓝",IF(C132="SSS","橙","紫"))</f>
-        <v>蓝</v>
-      </c>
-      <c r="E132" s="22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" s="23" customFormat="1">
-      <c r="A133" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B133" s="19"/>
-      <c r="C133" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D133" s="21" t="str">
-        <f>IF(C133="A","蓝",IF(C133="SSS","橙","紫"))</f>
-        <v>蓝</v>
-      </c>
-      <c r="E133" s="22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" s="23" customFormat="1">
-      <c r="A134" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="B134" s="19"/>
-      <c r="C134" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D134" s="21" t="str">
-        <f>IF(C134="A","蓝",IF(C134="SSS","橙","紫"))</f>
-        <v>蓝</v>
-      </c>
-      <c r="E134" s="22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" s="23" customFormat="1">
-      <c r="A135" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="B135" s="19"/>
-      <c r="C135" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D135" s="21" t="str">
-        <f>IF(C135="A","蓝",IF(C135="SSS","橙","紫"))</f>
-        <v>蓝</v>
-      </c>
-      <c r="E135" s="22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" s="23" customFormat="1">
-      <c r="A136" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D136" s="21" t="str">
-        <f>IF(C136="A","蓝",IF(C136="SSS","橙","紫"))</f>
-        <v>蓝</v>
-      </c>
-      <c r="E136" s="22" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -5271,13 +5974,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5288,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5299,7 +6002,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5310,7 +6013,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5321,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5332,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5343,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5354,7 +6057,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5365,7 +6068,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5376,7 +6079,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5387,7 +6090,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5398,7 +6101,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5409,7 +6112,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5420,7 +6123,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5431,7 +6134,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5442,7 +6145,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5453,7 +6156,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5464,7 +6167,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5475,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5486,7 +6189,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5497,7 +6200,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5508,7 +6211,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5519,7 +6222,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5530,7 +6233,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5541,7 +6244,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5552,7 +6255,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5563,1195 +6266,1195 @@
         <v>6</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" s="10">
         <v>1</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="10">
         <v>1</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" s="10">
         <v>1</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="10">
         <v>1</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" s="10">
         <v>1</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="10">
         <v>1</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" s="10">
         <v>1</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="10">
         <v>1</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" s="10">
         <v>1</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" s="10">
         <v>1</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" s="10">
         <v>2</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B39" s="10">
         <v>2</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40" s="10">
         <v>2</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="10">
         <v>2</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B42" s="10">
         <v>2</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B43" s="10">
         <v>2</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" s="10">
         <v>2</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" s="10">
         <v>2</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B46" s="10">
         <v>2</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="10">
         <v>2</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B48" s="10">
         <v>3</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B49" s="10">
         <v>3</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B50" s="10">
         <v>3</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51" s="10">
         <v>3</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B52" s="10">
         <v>3</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B53" s="10">
         <v>3</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B54" s="10">
         <v>3</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B55" s="10">
         <v>3</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B56" s="10">
         <v>3</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B57" s="10">
         <v>3</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B58" s="10">
         <v>4</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B59" s="10">
         <v>4</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B60" s="10">
         <v>4</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B61" s="10">
         <v>4</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B62" s="10">
         <v>4</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B63" s="10">
         <v>4</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B64" s="10">
         <v>4</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B65" s="10">
         <v>4</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B66" s="10">
         <v>4</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B67" s="10">
         <v>4</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B68" s="10">
         <v>1</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B69" s="10">
         <v>1</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B70" s="10">
         <v>1</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B71" s="10">
         <v>1</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B72" s="10">
         <v>1</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B73" s="10">
         <v>1</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B74" s="10">
         <v>1</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B75" s="10">
         <v>1</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B76" s="10">
         <v>1</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B77" s="10">
         <v>1</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B78" s="10">
         <v>2</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B79" s="10">
         <v>2</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B80" s="10">
         <v>2</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B81" s="10">
         <v>2</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B82" s="10">
         <v>2</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B83" s="10">
         <v>2</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B84" s="10">
         <v>2</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B85" s="10">
         <v>2</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B86" s="10">
         <v>2</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B87" s="11">
         <v>2</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B88" s="10">
         <v>3</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B89" s="10">
         <v>3</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B90" s="10">
         <v>3</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B91" s="10">
         <v>3</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B92" s="10">
         <v>3</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B93" s="10">
         <v>3</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B94" s="10">
         <v>3</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B95" s="10">
         <v>3</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B96" s="10">
         <v>3</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B97" s="10">
         <v>3</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B98" s="10">
         <v>4</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B99" s="10">
         <v>4</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B100" s="10">
         <v>4</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B101" s="10">
         <v>4</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B102" s="10">
         <v>4</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B103" s="10">
         <v>4</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B104" s="10">
         <v>4</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B105" s="10">
         <v>4</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B106" s="10">
         <v>4</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B107" s="10">
         <v>4</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B108" s="10">
         <v>1</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B109" s="10">
         <v>1</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B110" s="10">
         <v>1</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B111" s="10">
         <v>1</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B112" s="10">
         <v>2</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B113" s="10">
         <v>2</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B114" s="10">
         <v>2</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B115" s="10">
         <v>2</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B116" s="10">
         <v>2</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B117" s="10">
         <v>2</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B118" s="10">
         <v>2</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B119" s="10">
         <v>2</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B120" s="10">
         <v>2</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B121" s="10">
         <v>2</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B122" s="11">
         <v>3</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B123" s="10">
         <v>3</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B124" s="10">
         <v>3</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B125" s="10">
         <v>3</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B126" s="10">
         <v>3</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B127" s="10">
         <v>3</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B128" s="10">
         <v>3</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B129" s="10">
         <v>4</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B130" s="10">
         <v>4</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B131" s="10">
         <v>4</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B132" s="10">
         <v>4</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B133" s="10">
         <v>4</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B134" s="10">
         <v>4</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B135" s="10">
         <v>4</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="136" spans="1:3">

--- a/Document/武将技能及晋升资质.xlsx
+++ b/Document/武将技能及晋升资质.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="296">
   <si>
     <t>四维</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -961,6 +961,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>都督*圣兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都督*白虎：当陆逊装备法术武器时，普攻伤害增加X；当装备短兵时，白虎的防御增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -969,7 +977,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>武圣：当关羽装备横扫类武器时，对其影响目标身后的单位造成</t>
+      <t>当吕布装备横扫类装备时，攻击系数降低</t>
     </r>
     <r>
       <rPr>
@@ -979,7 +987,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>X</t>
+      <t>0.2</t>
     </r>
     <r>
       <rPr>
@@ -989,16 +997,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>溅射伤害</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>都督*圣兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>都督*白虎：当陆逊装备法术武器时，普攻伤害增加X；当装备短兵时，白虎的防御增加</t>
+      <t>，攻击将会波及到其身后的所有目标；当装备远射类装备时，命中率提高百分之百</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1010,7 +1010,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>当吕布装备横扫类装备时，攻击系数降低</t>
+      <t>每当典韦成功格挡一次后，减少绝技</t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>0.2</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1030,12 +1030,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>，攻击将会波及到其身后的所有目标；当装备远射类装备时，命中率提高百分之百</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌方单体造成300%~360%的伤害，并增加自身30%格挡率，持续2回合，调息5回合，无消耗</t>
+      <t>回合调息时间</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1047,7 +1043,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>每当典韦成功格挡一次后，减少绝技</t>
+      <t>典韦阵亡后化身一个拥有最大血量百分之</t>
     </r>
     <r>
       <rPr>
@@ -1057,7 +1053,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
+      <t>50</t>
     </r>
     <r>
       <rPr>
@@ -1067,8 +1063,24 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>回合调息时间</t>
-    </r>
+      <t>的英灵继续战斗，持续两回合或英灵阵亡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终伤免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡后可以反击，造成百分之五十伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1080,7 +1092,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>典韦阵亡后化身一个拥有最大血量百分之</t>
+      <t>郭嘉阵亡后对敌方的全部敌人造成2</t>
     </r>
     <r>
       <rPr>
@@ -1090,7 +1102,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>50</t>
+      <t>00%</t>
     </r>
     <r>
       <rPr>
@@ -1100,27 +1112,18 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>的英灵继续战斗，持续两回合或英灵阵亡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终伤免</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡后可以反击，造成百分之五十伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>伤害并降低速度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1129,7 +1132,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>郭嘉阵亡后对敌方的全部敌人造成2</t>
+      <t>回合</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加百分之</t>
     </r>
     <r>
       <rPr>
@@ -1139,7 +1155,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>00%</t>
+      <t>20</t>
     </r>
     <r>
       <rPr>
@@ -1149,7 +1165,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>伤害并降低速度</t>
+      <t>闪避率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加百分之</t>
     </r>
     <r>
       <rPr>
@@ -1159,7 +1188,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>2</t>
+      <t>20</t>
     </r>
     <r>
       <rPr>
@@ -1169,8 +1198,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>回合</t>
-    </r>
+      <t>闪避率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1182,7 +1219,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>增加百分之</t>
+      <t>当力量大于对方时，格挡反击伤害增加百分之</t>
     </r>
     <r>
       <rPr>
@@ -1192,8 +1229,15 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>20</t>
-    </r>
+      <t>30</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加百分之30格挡率，当体质大于对方时，格挡伤害降低10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1202,7 +1246,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>闪避率</t>
+      <t>当郭嘉装备法术类装备时，法术伤害提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30%</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1215,7 +1269,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>增加百分之</t>
+      <t>免疫晕眩效果，法术防御增加</t>
     </r>
     <r>
       <rPr>
@@ -1225,7 +1279,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>20</t>
+      <t>50%</t>
     </r>
     <r>
       <rPr>
@@ -1235,16 +1289,18 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>闪避率</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
+      <t>，物理防御降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30%</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1256,7 +1312,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>当力量大于对方时，格挡反击伤害增加百分之</t>
+      <t>对敌方单体造成</t>
     </r>
     <r>
       <rPr>
@@ -1266,15 +1322,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>30</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加百分之30格挡率，当体质大于对方时，格挡伤害降低10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>320%~360%</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1283,7 +1332,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>当郭嘉装备法术类装备时，法术伤害提升</t>
+      <t>的伤害，并附加封技两回合，调息</t>
     </r>
     <r>
       <rPr>
@@ -1293,11 +1342,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>30%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>5</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1306,7 +1352,28 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>对敌方随机</t>
+      <t>回合，无消耗</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先机技：奇计：战斗开始时，敌方所有人有百分之20几率陷入晕眩状态，持续一回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先机技：水淹七军：战斗开始时，对敌方所有敌人造成</t>
     </r>
     <r>
       <rPr>
@@ -1316,7 +1383,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>3</t>
+      <t>100%</t>
     </r>
     <r>
       <rPr>
@@ -1326,7 +1393,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>名目标造成</t>
+      <t>伤害附加速度降低</t>
     </r>
     <r>
       <rPr>
@@ -1336,8 +1403,15 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>150%~170%</t>
-    </r>
+      <t>10%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流言：对单体目标造成120%伤害，50%附加晕眩一回合，调息2回合，消耗80点法力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1346,7 +1420,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>的伤害，对晕眩状态的敌人伤害增加</t>
+      <t>减少绝技</t>
     </r>
     <r>
       <rPr>
@@ -1356,7 +1430,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>50%</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1366,7 +1440,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>，调息</t>
+      <t>回合调息时间，流言的晕眩率提升</t>
     </r>
     <r>
       <rPr>
@@ -1376,8 +1450,19 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>5</t>
-    </r>
+      <t>10%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1386,7 +1471,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>回合，消耗</t>
+      <t>免疫封技，当力量大于对手时，伤害增加</t>
     </r>
     <r>
       <rPr>
@@ -1396,8 +1481,31 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>200</t>
-    </r>
+      <t>30%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当关羽击杀一个目标后，绝技的调息时间减少2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当友方武将对敌方目标暴击时，关羽会随后对该目标造成150%的伤害，最多触发7次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽死亡时对击杀者造成400%的伤害，并附加封技1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当贾诩装备法术类装备时，会优先攻击生命百分比最低的单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1406,11 +1514,18 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>点法力</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>武圣：当关羽装备横扫类武器时，对其影响目标身后单位造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1419,7 +1534,24 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>免疫晕眩效果，法术防御增加</t>
+      <t>溅射伤害</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对敌方生命百分比最低的单位造成</t>
     </r>
     <r>
       <rPr>
@@ -1429,7 +1561,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>50%</t>
+      <t>150%</t>
     </r>
     <r>
       <rPr>
@@ -1439,7 +1571,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>，物理防御降低</t>
+      <t>的伤害并吸取伤害的</t>
     </r>
     <r>
       <rPr>
@@ -1449,11 +1581,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>30%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>20%</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1462,7 +1591,24 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>对敌方单体造成</t>
+      <t>生命</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破釜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击杀比自己智力低的敌人时，回复自身最大生命值的2</t>
     </r>
     <r>
       <rPr>
@@ -1472,8 +1618,15 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>320%~360%</t>
-    </r>
+      <t>0%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少全队受到的魔法伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1482,7 +1635,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>的伤害，并附加封技两回合，调息</t>
+      <t>绝技</t>
     </r>
     <r>
       <rPr>
@@ -1492,7 +1645,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>5</t>
+      <t>50%</t>
     </r>
     <r>
       <rPr>
@@ -1502,19 +1655,18 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>回合，无消耗</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先机技：奇计：战斗开始时，敌方所有人有百分之20几率陷入晕眩状态，持续一回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>附加【中毒】状态，持续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1523,7 +1675,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>先机技：水淹七军：战斗开始时，对敌方所有敌人造成</t>
+      <t>回合</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少绝技</t>
     </r>
     <r>
       <rPr>
@@ -1533,7 +1698,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>100%</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1543,7 +1708,24 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>伤害附加速度降低</t>
+      <t>回合调息时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当司马懿装备法术类装备时，每次攻击可回复30%自身智力值的法力；当装备短兵时，每次攻击可吸取30%生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对随机</t>
     </r>
     <r>
       <rPr>
@@ -1553,15 +1735,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>10%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流言：对单体目标造成120%伤害，50%附加晕眩一回合，调息2回合，消耗80点法力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>2</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1570,7 +1745,24 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>减少绝技</t>
+      <t>名敌方单位造成伤害并</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一夫当关：对敌方单体造成300%~360%的伤害，并增加自身30%格挡率，持续2回合，调息5回合，无消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乱武：对敌方全体造成</t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1772,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
+      <t>80%~100%</t>
     </r>
     <r>
       <rPr>
@@ -1590,7 +1782,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>回合调息时间，流言的晕眩率提升</t>
+      <t>的伤害，并附加</t>
     </r>
     <r>
       <rPr>
@@ -1600,19 +1792,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>10%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>2</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1621,7 +1802,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>免疫封技，当力量大于对手时，伤害增加</t>
+      <t>回合的【易损】状态，该状态下的单位受到的全部伤害增加</t>
     </r>
     <r>
       <rPr>
@@ -1631,20 +1812,461 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，持续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合，消耗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大血量，冷却</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合，生命</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>30%</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当关羽击杀一个目标后，绝技的调息时间减少2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当友方武将对敌方目标暴击时，关羽会随后对该目标造成150%的伤害，最多触发7次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关羽死亡时对击杀者造成400%的伤害，并附加封技1回合</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以下无法释放</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蜚语：对敌方随机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名目标造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150%~170%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的伤害，对晕眩状态的敌人伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，调息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合，消耗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点法力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连破</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对敌方单体造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>300%~380%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的伤害，调息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合，消耗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点法力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连破击杀一个目标后，可重置调息时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对智力低于自身的敌人伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死于吉的单位获得【缠怨】状态5回合，当其生命低于20%时，则立即死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对生命最低的敌方单位造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>250%~300%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的伤害，并晕眩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合，调息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合，消耗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前生命</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当自身的生命低于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，孙策获得【激昂】状态：攻击力翻倍，且</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2129,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2249,7 +2871,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="54.75">
+    <row r="3" spans="1:23" ht="42">
       <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
@@ -2292,34 +2914,34 @@
         <v>218</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="R3" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>234</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="54.75">
@@ -2362,37 +2984,37 @@
         <v>219</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R4" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="U4" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="57">
       <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
@@ -2432,8 +3054,38 @@
         <v>219</v>
       </c>
       <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="N5" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="41.25">
       <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
@@ -2475,6 +3127,18 @@
       <c r="M6" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="N6" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="20" t="s">
@@ -2561,6 +3225,9 @@
       <c r="M8" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="N8" s="3" t="s">
+        <v>286</v>
+      </c>
       <c r="S8" s="14" t="s">
         <v>235</v>
       </c>
@@ -2605,34 +3272,34 @@
         <v>220</v>
       </c>
       <c r="N9" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="P9" s="2" t="s">
+      <c r="S9" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="U9" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="W9" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2937,7 +3604,7 @@
         <v>218</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2983,10 +3650,10 @@
         <v>218</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="28.5">
       <c r="A18" s="20" t="s">
         <v>16</v>
       </c>
@@ -3028,6 +3695,12 @@
       <c r="M18" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="N18" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="21" t="s">
@@ -3115,7 +3788,7 @@
         <v>218</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -3201,7 +3874,7 @@
         <v>222</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3244,7 +3917,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" ht="41.25">
       <c r="A24" s="20" t="s">
         <v>22</v>
       </c>
@@ -3283,6 +3956,9 @@
       <c r="L24" s="2" t="s">
         <v>219</v>
       </c>
+      <c r="W24" s="2" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="25" spans="1:23" ht="42">
       <c r="A25" s="20" t="s">
@@ -3330,7 +4006,7 @@
         <v>76</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="W25" s="3" t="s">
         <v>77</v>

--- a/Document/武将技能及晋升资质.xlsx
+++ b/Document/武将技能及晋升资质.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="295">
   <si>
     <t>四维</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -850,6 +850,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>刺日*吞月：当张辽装备穿刺类武器时，对首个目标额外增加X伤害；当装备横扫类武器时，额外增加一个目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -858,7 +862,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>神力*双戟：当典韦装备粉碎武器时，防御提升X；当装备短兵器时，普通攻击有</t>
+      <t>踏破：当马超装备穿刺类武器时，普攻伤害提升</t>
     </r>
     <r>
       <rPr>
@@ -870,6 +874,48 @@
       </rPr>
       <t>X</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴怒：当张飞装备穿刺类武器时，对首个目标身旁的两个单位造成X溅射伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿云*青釭：当赵云装备穿刺类武器时，可额外增加一个目标；当装备短兵器时，普通攻击可为目标附加一个破甲状态，受到物理伤害提升X，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破军</t>
+  </si>
+  <si>
+    <t>七杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阵*绝杀：当甘宁装备短兵器时，增加自身X生命上限，当装备远射类武器时，普通攻击对生命X以下的敌人增加X伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都督*圣兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都督*白虎：当陆逊装备法术武器时，普攻伤害增加X；当装备短兵时，白虎的防御增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -878,7 +924,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>几率再次发动一次普通攻击，造成</t>
+      <t>当吕布装备横扫类装备时，攻击系数降低</t>
     </r>
     <r>
       <rPr>
@@ -888,7 +934,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>X</t>
+      <t>0.2</t>
     </r>
     <r>
       <rPr>
@@ -898,12 +944,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>物理伤害</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺日*吞月：当张辽装备穿刺类武器时，对首个目标额外增加X伤害；当装备横扫类武器时，额外增加一个目标</t>
+      <t>，攻击将会波及到其身后的所有目标；当装备远射类装备时，命中率提高百分之百</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -915,7 +957,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>踏破：当马超装备穿刺类武器时，普攻伤害提升</t>
+      <t>每当典韦成功格挡一次后，减少绝技</t>
     </r>
     <r>
       <rPr>
@@ -925,50 +967,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>X</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴怒：当张飞装备穿刺类武器时，对首个目标身旁的两个单位造成X溅射伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿云*青釭：当赵云装备穿刺类武器时，可额外增加一个目标；当装备短兵器时，普通攻击可为目标附加一个破甲状态，受到物理伤害提升X，持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破军</t>
-  </si>
-  <si>
-    <t>七杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贪狼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阵*绝杀：当甘宁装备短兵器时，增加自身X生命上限，当装备远射类武器时，普通攻击对生命X以下的敌人增加X伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>都督*圣兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>都督*白虎：当陆逊装备法术武器时，普攻伤害增加X；当装备短兵时，白虎的防御增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>1</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -977,7 +977,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>当吕布装备横扫类装备时，攻击系数降低</t>
+      <t>回合调息时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>典韦阵亡后化身一个拥有最大血量百分之</t>
     </r>
     <r>
       <rPr>
@@ -987,7 +1000,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>0.2</t>
+      <t>50</t>
     </r>
     <r>
       <rPr>
@@ -997,8 +1010,24 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>，攻击将会波及到其身后的所有目标；当装备远射类装备时，命中率提高百分之百</t>
-    </r>
+      <t>的英灵继续战斗，持续两回合或英灵阵亡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终伤免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡后可以反击，造成百分之五十伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1010,7 +1039,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>每当典韦成功格挡一次后，减少绝技</t>
+      <t>郭嘉阵亡后对敌方的全部敌人造成2</t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1049,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
+      <t>00%</t>
     </r>
     <r>
       <rPr>
@@ -1030,11 +1059,18 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>回合调息时间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>伤害并降低速度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1043,7 +1079,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>典韦阵亡后化身一个拥有最大血量百分之</t>
+      <t>回合</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加百分之</t>
     </r>
     <r>
       <rPr>
@@ -1053,7 +1102,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>50</t>
+      <t>20</t>
     </r>
     <r>
       <rPr>
@@ -1063,24 +1112,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>的英灵继续战斗，持续两回合或英灵阵亡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终伤免</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡后可以反击，造成百分之五十伤害</t>
+      <t>闪避率</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1092,7 +1125,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>郭嘉阵亡后对敌方的全部敌人造成2</t>
+      <t>增加百分之</t>
     </r>
     <r>
       <rPr>
@@ -1102,7 +1135,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>00%</t>
+      <t>20</t>
     </r>
     <r>
       <rPr>
@@ -1112,7 +1145,28 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>伤害并降低速度</t>
+      <t>闪避率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当力量大于对方时，格挡反击伤害增加百分之</t>
     </r>
     <r>
       <rPr>
@@ -1122,8 +1176,15 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>2</t>
-    </r>
+      <t>30</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加百分之30格挡率，当体质大于对方时，格挡伤害降低10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1132,7 +1193,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>回合</t>
+      <t>当郭嘉装备法术类装备时，法术伤害提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30%</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1145,7 +1216,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>增加百分之</t>
+      <t>免疫晕眩效果，法术防御增加</t>
     </r>
     <r>
       <rPr>
@@ -1155,7 +1226,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>20</t>
+      <t>50%</t>
     </r>
     <r>
       <rPr>
@@ -1165,7 +1236,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>闪避率</t>
+      <t>，物理防御降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30%</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1178,7 +1259,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>增加百分之</t>
+      <t>对敌方单体造成</t>
     </r>
     <r>
       <rPr>
@@ -1188,7 +1269,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>20</t>
+      <t>320%~360%</t>
     </r>
     <r>
       <rPr>
@@ -1198,19 +1279,18 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>闪避率</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>的伤害，并附加封技两回合，调息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1219,7 +1299,28 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>当力量大于对方时，格挡反击伤害增加百分之</t>
+      <t>回合，无消耗</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先机技：奇计：战斗开始时，敌方所有人有百分之20几率陷入晕眩状态，持续一回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先机技：水淹七军：战斗开始时，对敌方所有敌人造成</t>
     </r>
     <r>
       <rPr>
@@ -1229,15 +1330,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>30</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加百分之30格挡率，当体质大于对方时，格挡伤害降低10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>100%</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1246,7 +1340,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>当郭嘉装备法术类装备时，法术伤害提升</t>
+      <t>伤害附加速度降低</t>
     </r>
     <r>
       <rPr>
@@ -1256,8 +1350,12 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>30%</t>
-    </r>
+      <t>10%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流言：对单体目标造成120%伤害，50%附加晕眩一回合，调息2回合，消耗80点法力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1269,7 +1367,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>免疫晕眩效果，法术防御增加</t>
+      <t>减少绝技</t>
     </r>
     <r>
       <rPr>
@@ -1279,7 +1377,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>50%</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1289,7 +1387,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>，物理防御降低</t>
+      <t>回合调息时间，流言的晕眩率提升</t>
     </r>
     <r>
       <rPr>
@@ -1299,8 +1397,16 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>30%</t>
-    </r>
+      <t>10%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1312,7 +1418,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>对敌方单体造成</t>
+      <t>免疫封技，当力量大于对手时，伤害增加</t>
     </r>
     <r>
       <rPr>
@@ -1322,8 +1428,31 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>320%~360%</t>
-    </r>
+      <t>30%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当关羽击杀一个目标后，绝技的调息时间减少2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当友方武将对敌方目标暴击时，关羽会随后对该目标造成150%的伤害，最多触发7次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽死亡时对击杀者造成400%的伤害，并附加封技1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当贾诩装备法术类装备时，会优先攻击生命百分比最低的单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1332,7 +1461,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>的伤害，并附加封技两回合，调息</t>
+      <t>武圣：当关羽装备横扫类武器时，对其影响目标身后单位造成</t>
     </r>
     <r>
       <rPr>
@@ -1342,7 +1471,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>5</t>
+      <t>X</t>
     </r>
     <r>
       <rPr>
@@ -1352,16 +1481,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>回合，无消耗</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先机技：奇计：战斗开始时，敌方所有人有百分之20几率陷入晕眩状态，持续一回合</t>
+      <t>溅射伤害</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1373,7 +1498,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>先机技：水淹七军：战斗开始时，对敌方所有敌人造成</t>
+      <t>对敌方生命百分比最低的单位造成</t>
     </r>
     <r>
       <rPr>
@@ -1383,7 +1508,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>100%</t>
+      <t>150%</t>
     </r>
     <r>
       <rPr>
@@ -1393,7 +1518,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>伤害附加速度降低</t>
+      <t>的伤害并吸取伤害的</t>
     </r>
     <r>
       <rPr>
@@ -1403,15 +1528,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>10%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流言：对单体目标造成120%伤害，50%附加晕眩一回合，调息2回合，消耗80点法力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>20%</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1420,7 +1538,24 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>减少绝技</t>
+      <t>生命</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破釜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击杀比自己智力低的敌人时，回复自身最大生命值的2</t>
     </r>
     <r>
       <rPr>
@@ -1430,8 +1565,15 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
-    </r>
+      <t>0%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少全队受到的魔法伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1440,7 +1582,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>回合调息时间，流言的晕眩率提升</t>
+      <t>绝技</t>
     </r>
     <r>
       <rPr>
@@ -1450,19 +1592,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>10%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>50%</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1471,7 +1602,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>免疫封技，当力量大于对手时，伤害增加</t>
+      <t>附加【中毒】状态，持续</t>
     </r>
     <r>
       <rPr>
@@ -1481,31 +1612,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>30%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当关羽击杀一个目标后，绝技的调息时间减少2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当友方武将对敌方目标暴击时，关羽会随后对该目标造成150%的伤害，最多触发7次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关羽死亡时对击杀者造成400%的伤害，并附加封技1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当贾诩装备法术类装备时，会优先攻击生命百分比最低的单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>3</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1514,7 +1622,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>武圣：当关羽装备横扫类武器时，对其影响目标身后单位造成</t>
+      <t>回合</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少绝技</t>
     </r>
     <r>
       <rPr>
@@ -1524,7 +1645,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>X</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1534,12 +1655,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>溅射伤害</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
+      <t>回合调息时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当司马懿装备法术类装备时，每次攻击可回复30%自身智力值的法力；当装备短兵时，每次攻击可吸取30%生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1551,7 +1672,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>对敌方生命百分比最低的单位造成</t>
+      <t>对随机</t>
     </r>
     <r>
       <rPr>
@@ -1561,7 +1682,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>150%</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1571,7 +1692,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>的伤害并吸取伤害的</t>
+      <t>名敌方单位造成伤害并</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乱武：对敌方全体造成</t>
     </r>
     <r>
       <rPr>
@@ -1581,7 +1715,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>20%</t>
+      <t>80%~100%</t>
     </r>
     <r>
       <rPr>
@@ -1591,15 +1725,18 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>生命</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破釜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>的伤害，并附加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1608,7 +1745,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>击杀比自己智力低的敌人时，回复自身最大生命值的2</t>
+      <t>回合的【易损】状态，该状态下的单位受到的全部伤害增加</t>
     </r>
     <r>
       <rPr>
@@ -1618,15 +1755,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>0%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减少全队受到的魔法伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>10%</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1635,7 +1765,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>绝技</t>
+      <t>，持续</t>
     </r>
     <r>
       <rPr>
@@ -1645,7 +1775,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>50%</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -1655,7 +1785,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>附加【中毒】状态，持续</t>
+      <t>回合，消耗</t>
     </r>
     <r>
       <rPr>
@@ -1665,7 +1795,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>3</t>
+      <t>20%</t>
     </r>
     <r>
       <rPr>
@@ -1675,11 +1805,18 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>回合</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>最大血量，冷却</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1688,7 +1825,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>减少绝技</t>
+      <t>回合，生命</t>
     </r>
     <r>
       <rPr>
@@ -1698,7 +1835,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>2</t>
+      <t>30%</t>
     </r>
     <r>
       <rPr>
@@ -1708,12 +1845,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>回合调息时间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当司马懿装备法术类装备时，每次攻击可回复30%自身智力值的法力；当装备短兵时，每次攻击可吸取30%生命</t>
+      <t>以下无法释放</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1725,7 +1858,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>对随机</t>
+      <t>蜚语：对敌方随机</t>
     </r>
     <r>
       <rPr>
@@ -1735,7 +1868,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>2</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -1745,15 +1878,18 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>名敌方单位造成伤害并</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一夫当关：对敌方单体造成300%~360%的伤害，并增加自身30%格挡率，持续2回合，调息5回合，无消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>名目标造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150%~170%</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1762,7 +1898,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>乱武：对敌方全体造成</t>
+      <t>的伤害，对晕眩状态的敌人伤害增加</t>
     </r>
     <r>
       <rPr>
@@ -1772,7 +1908,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>80%~100%</t>
+      <t>50%</t>
     </r>
     <r>
       <rPr>
@@ -1782,7 +1918,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>的伤害，并附加</t>
+      <t>，调息</t>
     </r>
     <r>
       <rPr>
@@ -1792,7 +1928,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>2</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -1802,7 +1938,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>回合的【易损】状态，该状态下的单位受到的全部伤害增加</t>
+      <t>回合，消耗</t>
     </r>
     <r>
       <rPr>
@@ -1812,7 +1948,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>10%</t>
+      <t>200</t>
     </r>
     <r>
       <rPr>
@@ -1822,7 +1958,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>，持续</t>
+      <t>点法力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连破</t>
     </r>
     <r>
       <rPr>
@@ -1832,7 +1981,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>3</t>
+      <t>:</t>
     </r>
     <r>
       <rPr>
@@ -1842,7 +1991,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>回合，消耗</t>
+      <t>对敌方单体造成</t>
     </r>
     <r>
       <rPr>
@@ -1852,7 +2001,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>20%</t>
+      <t>300%~380%</t>
     </r>
     <r>
       <rPr>
@@ -1862,7 +2011,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>最大血量，冷却</t>
+      <t>的伤害，调息</t>
     </r>
     <r>
       <rPr>
@@ -1882,7 +2031,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>回合，生命</t>
+      <t>回合，消耗</t>
     </r>
     <r>
       <rPr>
@@ -1892,7 +2041,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>30%</t>
+      <t>200</t>
     </r>
     <r>
       <rPr>
@@ -1902,8 +2051,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>以下无法释放</t>
-    </r>
+      <t>点法力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连破击杀一个目标后，可重置调息时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1915,7 +2068,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>蜚语：对敌方随机</t>
+      <t>对智力低于自身的敌人伤害增加</t>
     </r>
     <r>
       <rPr>
@@ -1925,8 +2078,15 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>3</t>
-    </r>
+      <t>30%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死于吉的单位获得【缠怨】状态5回合，当其生命低于20%时，则立即死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1935,7 +2095,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>名目标造成</t>
+      <t>当自身的生命低于</t>
     </r>
     <r>
       <rPr>
@@ -1945,7 +2105,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>150%~170%</t>
+      <t>20%</t>
     </r>
     <r>
       <rPr>
@@ -1955,7 +2115,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>的伤害，对晕眩状态的敌人伤害增加</t>
+      <t>时，孙策获得【激昂】状态：攻击力翻倍，且</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>神力*双戟：当典韦装备粉碎武器时，防御提升X；当装备短兵器时，普通攻击有</t>
     </r>
     <r>
       <rPr>
@@ -1965,7 +2138,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>50%</t>
+      <t>X</t>
     </r>
     <r>
       <rPr>
@@ -1975,7 +2148,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>，调息</t>
+      <t>几率再次发动一次普通攻击，造成</t>
     </r>
     <r>
       <rPr>
@@ -1985,7 +2158,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>5</t>
+      <t>X</t>
     </r>
     <r>
       <rPr>
@@ -1995,7 +2168,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>回合，消耗</t>
+      <t>物理伤害</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对生命最低的敌方单位造成</t>
     </r>
     <r>
       <rPr>
@@ -2005,7 +2191,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>200</t>
+      <t>250%~300%</t>
     </r>
     <r>
       <rPr>
@@ -2015,11 +2201,18 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>点法力</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>的伤害，并晕眩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2028,244 +2221,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>连破</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对敌方单体造成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>300%~380%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的伤害，调息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回合，消耗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点法力</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连破击杀一个目标后，可重置调息时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对智力低于自身的敌人伤害增加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>30%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀死于吉的单位获得【缠怨】状态5回合，当其生命低于20%时，则立即死亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对生命最低的敌方单位造成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>250%~300%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的伤害，并晕眩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回合，调息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回合，消耗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当前生命</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当自身的生命低于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时，孙策获得【激昂】状态：攻击力翻倍，且</t>
+      <t>回合</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2751,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N3" sqref="A3:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2913,35 +2869,35 @@
       <c r="M3" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>287</v>
+      <c r="N3" s="2">
+        <v>96</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="R3" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="T3" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="54.75">
@@ -2952,7 +2908,7 @@
         <v>212</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D4" s="13" t="str">
         <f t="shared" si="0"/>
@@ -2984,34 +2940,34 @@
         <v>219</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="Q4" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="S4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="V4" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="57">
@@ -3022,7 +2978,7 @@
         <v>211</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D5" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3055,34 +3011,34 @@
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="T5" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="41.25">
@@ -3128,27 +3084,27 @@
         <v>218</v>
       </c>
       <c r="N6" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>213</v>
+      <c r="B7" s="13">
+        <v>19</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D7" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3191,7 +3147,7 @@
         <v>211</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D8" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3226,10 +3182,10 @@
         <v>221</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="41.25">
@@ -3240,7 +3196,7 @@
         <v>211</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D9" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3272,34 +3228,34 @@
         <v>220</v>
       </c>
       <c r="N9" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="P9" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="R9" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="U9" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="T9" s="2" t="s">
+      <c r="V9" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="W9" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -3310,7 +3266,7 @@
         <v>213</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D10" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3342,7 +3298,7 @@
         <v>221</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -3353,7 +3309,7 @@
         <v>212</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D11" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3393,7 +3349,7 @@
         <v>213</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D12" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3426,7 +3382,7 @@
       </c>
       <c r="M12" s="2"/>
       <c r="S12" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="41.25">
@@ -3472,7 +3428,7 @@
         <v>218</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -3523,7 +3479,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D15" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3558,7 +3514,7 @@
         <v>222</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="27.75">
@@ -3569,7 +3525,7 @@
         <v>212</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D16" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3604,7 +3560,7 @@
         <v>218</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -3615,7 +3571,7 @@
         <v>211</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D17" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3650,7 +3606,7 @@
         <v>218</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="28.5">
@@ -3699,7 +3655,7 @@
         <v>294</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -3710,7 +3666,7 @@
         <v>213</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D19" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3788,7 +3744,7 @@
         <v>218</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -3799,7 +3755,7 @@
         <v>212</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D21" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3874,7 +3830,7 @@
         <v>222</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3885,7 +3841,7 @@
         <v>212</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D23" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3925,7 +3881,7 @@
         <v>212</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D24" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3957,7 +3913,7 @@
         <v>219</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="42">
@@ -3968,7 +3924,7 @@
         <v>212</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D25" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4006,7 +3962,7 @@
         <v>76</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W25" s="3" t="s">
         <v>77</v>
@@ -4063,7 +4019,7 @@
         <v>211</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D27" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4091,7 +4047,7 @@
         <v>211</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D28" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4116,7 +4072,7 @@
         <v>83</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>171</v>
@@ -4140,7 +4096,7 @@
         <v>84</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>171</v>
@@ -4165,7 +4121,7 @@
         <v>85</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>171</v>
@@ -4192,7 +4148,7 @@
         <v>86</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>171</v>
@@ -4216,7 +4172,7 @@
         <v>87</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>171</v>
@@ -4243,7 +4199,7 @@
         <v>88</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>171</v>
@@ -4267,7 +4223,7 @@
         <v>89</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>171</v>
@@ -4294,7 +4250,7 @@
         <v>90</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>171</v>
@@ -4318,7 +4274,7 @@
         <v>91</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>171</v>
@@ -4342,7 +4298,7 @@
         <v>92</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>171</v>
@@ -4369,7 +4325,7 @@
         <v>103</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>171</v>
@@ -4396,7 +4352,7 @@
         <v>104</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>171</v>
@@ -4420,7 +4376,7 @@
         <v>105</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>171</v>
@@ -4444,7 +4400,7 @@
         <v>106</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>171</v>
@@ -4468,7 +4424,7 @@
         <v>107</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>171</v>
@@ -4492,7 +4448,7 @@
         <v>108</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>171</v>
@@ -4519,7 +4475,7 @@
         <v>109</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>171</v>
@@ -4543,7 +4499,7 @@
         <v>110</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>171</v>
@@ -4567,7 +4523,7 @@
         <v>111</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>171</v>
@@ -4591,7 +4547,7 @@
         <v>112</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>171</v>
@@ -4615,7 +4571,7 @@
         <v>123</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>171</v>
@@ -4639,7 +4595,7 @@
         <v>124</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>171</v>
@@ -4666,7 +4622,7 @@
         <v>125</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>171</v>
@@ -4690,7 +4646,7 @@
         <v>126</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>171</v>
@@ -4714,7 +4670,7 @@
         <v>127</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>171</v>
@@ -4741,7 +4697,7 @@
         <v>128</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>171</v>
@@ -4765,7 +4721,7 @@
         <v>129</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>171</v>
@@ -4792,7 +4748,7 @@
         <v>130</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>171</v>
@@ -4819,7 +4775,7 @@
         <v>131</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>171</v>
@@ -4843,7 +4799,7 @@
         <v>132</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>171</v>
@@ -4867,7 +4823,7 @@
         <v>143</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>171</v>
@@ -4894,7 +4850,7 @@
         <v>144</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>171</v>
@@ -4918,7 +4874,7 @@
         <v>145</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>171</v>
@@ -4945,7 +4901,7 @@
         <v>146</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>171</v>
@@ -4969,7 +4925,7 @@
         <v>147</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>171</v>
@@ -4996,7 +4952,7 @@
         <v>148</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>171</v>
@@ -5020,7 +4976,7 @@
         <v>149</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>171</v>
@@ -5047,7 +5003,7 @@
         <v>150</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>171</v>
@@ -5074,7 +5030,7 @@
         <v>151</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>171</v>
@@ -5101,7 +5057,7 @@
         <v>152</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>171</v>
@@ -5128,7 +5084,7 @@
         <v>93</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>171</v>
@@ -5152,7 +5108,7 @@
         <v>94</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>171</v>
@@ -5176,7 +5132,7 @@
         <v>95</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>171</v>
@@ -5200,7 +5156,7 @@
         <v>96</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>171</v>
@@ -5224,7 +5180,7 @@
         <v>97</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>171</v>
@@ -5251,7 +5207,7 @@
         <v>98</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>171</v>
@@ -5275,7 +5231,7 @@
         <v>99</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>171</v>
@@ -5302,7 +5258,7 @@
         <v>100</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>171</v>
@@ -5326,7 +5282,7 @@
         <v>101</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>171</v>
@@ -5350,7 +5306,7 @@
         <v>102</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>171</v>
@@ -5374,7 +5330,7 @@
         <v>113</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>171</v>
@@ -5398,7 +5354,7 @@
         <v>114</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>171</v>
@@ -5422,7 +5378,7 @@
         <v>115</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>171</v>
